--- a/data/pandemic-legislation/pandemic-legislation.xlsx
+++ b/data/pandemic-legislation/pandemic-legislation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/Projects/Fiscal-Impact-Measure/data/pandemic-legislation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D93313B-A0B8-CA43-9CE4-F855056B5740}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB1BCD9-EEEB-4B48-BF82-5EF70FA111EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="500" windowWidth="29800" windowHeight="18840" xr2:uid="{32B8EDEA-5FD5-412D-8D15-F127A7E2E8F1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19380" activeTab="2" xr2:uid="{32B8EDEA-5FD5-412D-8D15-F127A7E2E8F1}"/>
   </bookViews>
   <sheets>
     <sheet name="monthly" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="183">
   <si>
     <t>Levels</t>
   </si>
@@ -1019,16 +1019,26 @@
   <si>
     <t>Wages Lost Assistance Program</t>
   </si>
+  <si>
+    <t>HHS</t>
+  </si>
+  <si>
+    <t>provider_relief_fund</t>
+  </si>
+  <si>
+    <t>education_stabilization_fund</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    <numFmt numFmtId="175" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="172" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -1175,7 +1185,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1188,8 +1198,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="42">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -1672,6 +1694,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1683,7 +1748,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1804,35 +1869,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1855,12 +1893,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="6" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1869,9 +1901,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1896,22 +1925,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="10"/>
     </xf>
@@ -2032,8 +2046,66 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -2357,7 +2429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE4350B0-7EFA-EC47-A473-1BBCEF7CE688}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
@@ -2371,31 +2443,31 @@
       <c r="A1" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="166">
+      <c r="B1" s="149">
         <v>43922</v>
       </c>
-      <c r="C1" s="166">
+      <c r="C1" s="149">
         <v>43952</v>
       </c>
-      <c r="D1" s="166">
+      <c r="D1" s="149">
         <v>43983</v>
       </c>
-      <c r="E1" s="166">
+      <c r="E1" s="149">
         <v>44013</v>
       </c>
-      <c r="F1" s="166">
+      <c r="F1" s="149">
         <v>44044</v>
       </c>
-      <c r="G1" s="166">
+      <c r="G1" s="149">
         <v>44075</v>
       </c>
-      <c r="H1" s="166">
+      <c r="H1" s="149">
         <v>44105</v>
       </c>
-      <c r="I1" s="166">
+      <c r="I1" s="149">
         <v>44136</v>
       </c>
-      <c r="J1" s="60"/>
+      <c r="J1" s="52"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -2597,10 +2669,10 @@
       <c r="A1" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="52" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2663,10 +2735,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42E7E7A-1813-1D4C-9381-12D9A6751513}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2675,75 +2747,143 @@
     <col min="2" max="2" width="41.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>128</v>
       </c>
       <c r="B1" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="167">
+      <c r="C1" s="150">
         <v>2021</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="61" t="s">
+      <c r="D1">
+        <v>2022</v>
+      </c>
+      <c r="E1" s="150">
+        <v>2023</v>
+      </c>
+      <c r="F1">
+        <v>2024</v>
+      </c>
+      <c r="G1" s="150">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="53" t="s">
         <v>105</v>
       </c>
       <c r="B2" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="94">
+      <c r="C2" s="78">
         <f>SUM(C3:C5)</f>
         <v>66.47999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="61" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="53" t="s">
         <v>108</v>
       </c>
       <c r="B3" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="94">
+      <c r="C3" s="78">
         <f>'cbo-annual'!E15</f>
         <v>47.8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="61" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="53" t="s">
         <v>107</v>
       </c>
       <c r="B4" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="94">
+      <c r="C4" s="78">
         <f>'cbo-annual'!E14</f>
         <v>13.68</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>106</v>
       </c>
       <c r="B5" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="81">
+      <c r="C5" s="69">
         <f>'cbo-annual'!E13</f>
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="61" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="53" t="s">
         <v>109</v>
       </c>
       <c r="B6" t="s">
         <v>129</v>
       </c>
-      <c r="C6" s="94">
+      <c r="C6" s="78">
         <f>'cbo-annual'!E16</f>
         <v>5.0049999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="69">
+        <f>'cbo-annual'!E22</f>
+        <v>72.537999999999997</v>
+      </c>
+      <c r="D7" s="69">
+        <f>'cbo-annual'!F22</f>
+        <v>10.331</v>
+      </c>
+      <c r="E7" s="69">
+        <f>'cbo-annual'!G22</f>
+        <v>4.2670000000000003</v>
+      </c>
+      <c r="F7" s="69">
+        <f>'cbo-annual'!H22</f>
+        <v>1.347</v>
+      </c>
+      <c r="G7" s="69">
+        <f>'cbo-annual'!I22</f>
+        <v>0.67400000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" s="78">
+        <f>'cbo-annual'!E29</f>
+        <v>10.763</v>
+      </c>
+      <c r="D8" s="78">
+        <f>'cbo-annual'!F29</f>
+        <v>5.7809999999999997</v>
+      </c>
+      <c r="E8" s="78">
+        <f>'cbo-annual'!G29</f>
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="F8" s="78">
+        <f>'cbo-annual'!H29</f>
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="G8" s="78">
+        <f>'cbo-annual'!I29</f>
+        <v>0.43099999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2755,7 +2895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43063354-354D-43F4-BA31-2DC297D0C41A}">
   <dimension ref="A1:Q90"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="119" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B23" zoomScale="119" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
@@ -2776,96 +2916,96 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="151" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="151"/>
+      <c r="O2" s="151"/>
+      <c r="P2" s="151"/>
+      <c r="Q2" s="151"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="151" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="151"/>
+      <c r="N3" s="151"/>
+      <c r="O3" s="151"/>
+      <c r="P3" s="151"/>
+      <c r="Q3" s="151"/>
     </row>
     <row r="4" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
+      <c r="A4" s="152"/>
+      <c r="B4" s="152"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="152"/>
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="151"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="151"/>
+      <c r="L4" s="151"/>
+      <c r="M4" s="151"/>
+      <c r="N4" s="151"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59"/>
+      <c r="C5" s="153" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="154"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="154"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="155"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="52">
+      <c r="C6" s="156">
         <v>2020</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="54"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="157"/>
+      <c r="G6" s="157"/>
+      <c r="H6" s="157"/>
+      <c r="I6" s="157"/>
+      <c r="J6" s="158"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="107"/>
+      <c r="B7" s="90"/>
       <c r="C7" s="8" t="s">
         <v>2</v>
       </c>
@@ -2887,7 +3027,7 @@
       <c r="I7" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="J7" s="108" t="s">
+      <c r="J7" s="91" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2895,31 +3035,31 @@
       <c r="A8" s="13">
         <v>1</v>
       </c>
-      <c r="B8" s="109" t="s">
+      <c r="B8" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="110">
+      <c r="C8" s="93">
         <v>21093.1</v>
       </c>
-      <c r="D8" s="111">
+      <c r="D8" s="94">
         <v>20246.099999999999</v>
       </c>
-      <c r="E8" s="112">
+      <c r="E8" s="95">
         <v>20032.7</v>
       </c>
-      <c r="F8" s="111">
+      <c r="F8" s="94">
         <v>20213.3</v>
       </c>
-      <c r="G8" s="112">
+      <c r="G8" s="95">
         <v>19691.7</v>
       </c>
-      <c r="H8" s="111">
+      <c r="H8" s="94">
         <v>19842.5</v>
       </c>
-      <c r="I8" s="113">
+      <c r="I8" s="96">
         <v>19715.099999999999</v>
       </c>
-      <c r="J8" s="114">
+      <c r="J8" s="97">
         <v>19493.3</v>
       </c>
     </row>
@@ -2927,31 +3067,31 @@
       <c r="A9" s="19">
         <v>2</v>
       </c>
-      <c r="B9" s="115" t="s">
+      <c r="B9" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="116">
+      <c r="C9" s="99">
         <v>10660.5</v>
       </c>
-      <c r="D9" s="117">
+      <c r="D9" s="100">
         <v>10962.1</v>
       </c>
-      <c r="E9" s="118">
+      <c r="E9" s="101">
         <v>11225.8</v>
       </c>
-      <c r="F9" s="117">
+      <c r="F9" s="100">
         <v>11399</v>
       </c>
-      <c r="G9" s="118">
+      <c r="G9" s="101">
         <v>11556.4</v>
       </c>
-      <c r="H9" s="117">
+      <c r="H9" s="100">
         <v>11656.4</v>
       </c>
-      <c r="I9" s="119">
+      <c r="I9" s="102">
         <v>11734.6</v>
       </c>
-      <c r="J9" s="120">
+      <c r="J9" s="103">
         <v>11784.9</v>
       </c>
     </row>
@@ -2959,31 +3099,31 @@
       <c r="A10" s="25">
         <v>3</v>
       </c>
-      <c r="B10" s="121" t="s">
+      <c r="B10" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="122">
+      <c r="C10" s="105">
         <v>8661.9</v>
       </c>
-      <c r="D10" s="123">
+      <c r="D10" s="106">
         <v>8925.4</v>
       </c>
-      <c r="E10" s="124">
+      <c r="E10" s="107">
         <v>9139.1</v>
       </c>
-      <c r="F10" s="123">
+      <c r="F10" s="106">
         <v>9288.2000000000007</v>
       </c>
-      <c r="G10" s="124">
+      <c r="G10" s="107">
         <v>9426.7000000000007</v>
       </c>
-      <c r="H10" s="123">
+      <c r="H10" s="106">
         <v>9514.6</v>
       </c>
-      <c r="I10" s="125">
+      <c r="I10" s="108">
         <v>9582.9</v>
       </c>
-      <c r="J10" s="126">
+      <c r="J10" s="109">
         <v>9622</v>
       </c>
     </row>
@@ -2991,31 +3131,31 @@
       <c r="A11">
         <v>4</v>
       </c>
-      <c r="B11" s="127" t="s">
+      <c r="B11" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="128">
+      <c r="C11" s="111">
         <v>7225.7</v>
       </c>
-      <c r="D11" s="63">
+      <c r="D11" s="54">
         <v>7514</v>
       </c>
-      <c r="E11" s="129">
+      <c r="E11" s="112">
         <v>7722</v>
       </c>
-      <c r="F11" s="63">
+      <c r="F11" s="54">
         <v>7858.5</v>
       </c>
-      <c r="G11" s="129">
+      <c r="G11" s="112">
         <v>7973.9</v>
       </c>
-      <c r="H11" s="63">
+      <c r="H11" s="54">
         <v>8070</v>
       </c>
-      <c r="I11" s="130">
+      <c r="I11" s="113">
         <v>8146.4</v>
       </c>
-      <c r="J11" s="131">
+      <c r="J11" s="114">
         <v>8185.8</v>
       </c>
     </row>
@@ -3023,31 +3163,31 @@
       <c r="A12" s="25">
         <v>5</v>
       </c>
-      <c r="B12" s="121" t="s">
+      <c r="B12" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="122">
+      <c r="C12" s="105">
         <v>1436.2</v>
       </c>
-      <c r="D12" s="123">
+      <c r="D12" s="106">
         <v>1411.5</v>
       </c>
-      <c r="E12" s="124">
+      <c r="E12" s="107">
         <v>1417</v>
       </c>
-      <c r="F12" s="123">
+      <c r="F12" s="106">
         <v>1429.7</v>
       </c>
-      <c r="G12" s="124">
+      <c r="G12" s="107">
         <v>1452.8</v>
       </c>
-      <c r="H12" s="123">
+      <c r="H12" s="106">
         <v>1444.6</v>
       </c>
-      <c r="I12" s="125">
+      <c r="I12" s="108">
         <v>1436.5</v>
       </c>
-      <c r="J12" s="126">
+      <c r="J12" s="109">
         <v>1436.3</v>
       </c>
     </row>
@@ -3055,31 +3195,31 @@
       <c r="A13">
         <v>6</v>
       </c>
-      <c r="B13" s="127" t="s">
+      <c r="B13" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="128">
+      <c r="C13" s="111">
         <v>1998.7</v>
       </c>
-      <c r="D13" s="63">
+      <c r="D13" s="54">
         <v>2036.6</v>
       </c>
-      <c r="E13" s="129">
+      <c r="E13" s="112">
         <v>2086.8000000000002</v>
       </c>
-      <c r="F13" s="63">
+      <c r="F13" s="54">
         <v>2110.8000000000002</v>
       </c>
-      <c r="G13" s="129">
+      <c r="G13" s="112">
         <v>2129.6999999999998</v>
       </c>
-      <c r="H13" s="63">
+      <c r="H13" s="54">
         <v>2141.8000000000002</v>
       </c>
-      <c r="I13" s="130">
+      <c r="I13" s="113">
         <v>2151.6</v>
       </c>
-      <c r="J13" s="131">
+      <c r="J13" s="114">
         <v>2162.9</v>
       </c>
     </row>
@@ -3087,31 +3227,31 @@
       <c r="A14" s="13">
         <v>7</v>
       </c>
-      <c r="B14" s="132" t="s">
+      <c r="B14" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="133">
+      <c r="C14" s="116">
         <v>1444.4</v>
       </c>
-      <c r="D14" s="111">
+      <c r="D14" s="94">
         <v>1492.9</v>
       </c>
-      <c r="E14" s="134">
+      <c r="E14" s="117">
         <v>1598.4</v>
       </c>
-      <c r="F14" s="111">
+      <c r="F14" s="94">
         <v>1700.6</v>
       </c>
-      <c r="G14" s="134">
+      <c r="G14" s="117">
         <v>1807.9</v>
       </c>
-      <c r="H14" s="111">
+      <c r="H14" s="94">
         <v>1900.6</v>
       </c>
-      <c r="I14" s="135">
+      <c r="I14" s="118">
         <v>1929.9</v>
       </c>
-      <c r="J14" s="136">
+      <c r="J14" s="119">
         <v>1766.5</v>
       </c>
     </row>
@@ -3119,61 +3259,61 @@
       <c r="A15">
         <v>8</v>
       </c>
-      <c r="B15" s="127" t="s">
+      <c r="B15" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="128">
+      <c r="C15" s="111">
         <v>33.700000000000003</v>
       </c>
-      <c r="D15" s="63">
+      <c r="D15" s="54">
         <v>22.9</v>
       </c>
-      <c r="E15" s="129">
+      <c r="E15" s="112">
         <v>60.2</v>
       </c>
-      <c r="F15" s="63">
+      <c r="F15" s="54">
         <v>47.4</v>
       </c>
-      <c r="G15" s="129">
+      <c r="G15" s="112">
         <v>71.7</v>
       </c>
-      <c r="H15" s="63">
+      <c r="H15" s="54">
         <v>69.3</v>
       </c>
-      <c r="I15" s="130">
+      <c r="I15" s="113">
         <v>150</v>
       </c>
-      <c r="J15" s="131">
+      <c r="J15" s="114">
         <v>82.7</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="25"/>
-      <c r="B16" s="137" t="s">
+      <c r="B16" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="122" t="s">
+      <c r="C16" s="105" t="s">
         <v>155</v>
       </c>
-      <c r="D16" s="123" t="s">
+      <c r="D16" s="106" t="s">
         <v>155</v>
       </c>
-      <c r="E16" s="124" t="s">
+      <c r="E16" s="107" t="s">
         <v>155</v>
       </c>
-      <c r="F16" s="123" t="s">
+      <c r="F16" s="106" t="s">
         <v>155</v>
       </c>
-      <c r="G16" s="124" t="s">
+      <c r="G16" s="107" t="s">
         <v>155</v>
       </c>
-      <c r="H16" s="123" t="s">
+      <c r="H16" s="106" t="s">
         <v>155</v>
       </c>
-      <c r="I16" s="125" t="s">
+      <c r="I16" s="108" t="s">
         <v>155</v>
       </c>
-      <c r="J16" s="126" t="s">
+      <c r="J16" s="109" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3181,31 +3321,31 @@
       <c r="A17" s="25">
         <v>9</v>
       </c>
-      <c r="B17" s="121" t="s">
+      <c r="B17" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="138" t="s">
+      <c r="C17" s="121" t="s">
         <v>156</v>
       </c>
-      <c r="D17" s="139" t="s">
+      <c r="D17" s="122" t="s">
         <v>156</v>
       </c>
-      <c r="E17" s="124">
+      <c r="E17" s="107">
         <v>50.6</v>
       </c>
-      <c r="F17" s="123">
+      <c r="F17" s="106">
         <v>20.399999999999999</v>
       </c>
-      <c r="G17" s="124">
+      <c r="G17" s="107">
         <v>27.3</v>
       </c>
-      <c r="H17" s="123">
+      <c r="H17" s="106">
         <v>7.6</v>
       </c>
-      <c r="I17" s="125">
+      <c r="I17" s="108">
         <v>92.5</v>
       </c>
-      <c r="J17" s="126">
+      <c r="J17" s="109">
         <v>26.3</v>
       </c>
     </row>
@@ -3213,31 +3353,31 @@
       <c r="A18">
         <v>10</v>
       </c>
-      <c r="B18" s="140" t="s">
+      <c r="B18" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="128">
+      <c r="C18" s="111">
         <v>2.9</v>
       </c>
-      <c r="D18" s="63">
+      <c r="D18" s="54">
         <v>7.4</v>
       </c>
-      <c r="E18" s="129">
+      <c r="E18" s="112">
         <v>9</v>
       </c>
-      <c r="F18" s="63">
+      <c r="F18" s="54">
         <v>9.1</v>
       </c>
-      <c r="G18" s="129">
+      <c r="G18" s="112">
         <v>9.1999999999999993</v>
       </c>
-      <c r="H18" s="63">
+      <c r="H18" s="54">
         <v>9.1999999999999993</v>
       </c>
-      <c r="I18" s="130">
+      <c r="I18" s="113">
         <v>6.3</v>
       </c>
-      <c r="J18" s="131">
+      <c r="J18" s="114">
         <v>1.8</v>
       </c>
     </row>
@@ -3245,60 +3385,60 @@
       <c r="A19" s="25">
         <v>11</v>
       </c>
-      <c r="B19" s="121" t="s">
+      <c r="B19" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="122">
+      <c r="C19" s="105">
         <v>1410.7</v>
       </c>
-      <c r="D19" s="123">
+      <c r="D19" s="106">
         <v>1470</v>
       </c>
-      <c r="E19" s="124">
+      <c r="E19" s="107">
         <v>1538.2</v>
       </c>
-      <c r="F19" s="123">
+      <c r="F19" s="106">
         <v>1653.2</v>
       </c>
-      <c r="G19" s="124">
+      <c r="G19" s="107">
         <v>1736.2</v>
       </c>
-      <c r="H19" s="123">
+      <c r="H19" s="106">
         <v>1831.3</v>
       </c>
-      <c r="I19" s="125">
+      <c r="I19" s="108">
         <v>1779.8</v>
       </c>
-      <c r="J19" s="126">
+      <c r="J19" s="109">
         <v>1683.8</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="141" t="s">
+      <c r="B20" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="128" t="s">
+      <c r="C20" s="111" t="s">
         <v>155</v>
       </c>
-      <c r="D20" s="63" t="s">
+      <c r="D20" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="E20" s="129" t="s">
+      <c r="E20" s="112" t="s">
         <v>155</v>
       </c>
-      <c r="F20" s="63" t="s">
+      <c r="F20" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="G20" s="129" t="s">
+      <c r="G20" s="112" t="s">
         <v>155</v>
       </c>
-      <c r="H20" s="63" t="s">
+      <c r="H20" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="I20" s="130" t="s">
+      <c r="I20" s="113" t="s">
         <v>155</v>
       </c>
-      <c r="J20" s="131" t="s">
+      <c r="J20" s="114" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3306,31 +3446,31 @@
       <c r="A21">
         <v>12</v>
       </c>
-      <c r="B21" s="140" t="s">
+      <c r="B21" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="128">
+      <c r="C21" s="111">
         <v>95</v>
       </c>
-      <c r="D21" s="63">
+      <c r="D21" s="54">
         <v>240</v>
       </c>
-      <c r="E21" s="129">
+      <c r="E21" s="112">
         <v>292.2</v>
       </c>
-      <c r="F21" s="63">
+      <c r="F21" s="54">
         <v>295.39999999999998</v>
       </c>
-      <c r="G21" s="129">
+      <c r="G21" s="112">
         <v>297.39999999999998</v>
       </c>
-      <c r="H21" s="63">
+      <c r="H21" s="54">
         <v>298.39999999999998</v>
       </c>
-      <c r="I21" s="130">
+      <c r="I21" s="113">
         <v>203.4</v>
       </c>
-      <c r="J21" s="131">
+      <c r="J21" s="114">
         <v>58.4</v>
       </c>
     </row>
@@ -3338,31 +3478,31 @@
       <c r="A22" s="13">
         <v>13</v>
       </c>
-      <c r="B22" s="132" t="s">
+      <c r="B22" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="133">
+      <c r="C22" s="116">
         <v>799.9</v>
       </c>
-      <c r="D22" s="111">
+      <c r="D22" s="94">
         <v>796.6</v>
       </c>
-      <c r="E22" s="134">
+      <c r="E22" s="117">
         <v>791.7</v>
       </c>
-      <c r="F22" s="111">
+      <c r="F22" s="94">
         <v>797.9</v>
       </c>
-      <c r="G22" s="134">
+      <c r="G22" s="117">
         <v>803.7</v>
       </c>
-      <c r="H22" s="111">
+      <c r="H22" s="94">
         <v>811.6</v>
       </c>
-      <c r="I22" s="135">
+      <c r="I22" s="118">
         <v>814.6</v>
       </c>
-      <c r="J22" s="136">
+      <c r="J22" s="119">
         <v>818.7</v>
       </c>
     </row>
@@ -3370,31 +3510,31 @@
       <c r="A23" s="19">
         <v>14</v>
       </c>
-      <c r="B23" s="115" t="s">
+      <c r="B23" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="116">
+      <c r="C23" s="99">
         <v>2945.1</v>
       </c>
-      <c r="D23" s="117">
+      <c r="D23" s="100">
         <v>2908.9</v>
       </c>
-      <c r="E23" s="118">
+      <c r="E23" s="101">
         <v>2876.6</v>
       </c>
-      <c r="F23" s="117">
+      <c r="F23" s="100">
         <v>2870.5</v>
       </c>
-      <c r="G23" s="118">
+      <c r="G23" s="101">
         <v>2847.9</v>
       </c>
-      <c r="H23" s="117">
+      <c r="H23" s="100">
         <v>2838.6</v>
       </c>
-      <c r="I23" s="119">
+      <c r="I23" s="102">
         <v>2854.2</v>
       </c>
-      <c r="J23" s="120">
+      <c r="J23" s="103">
         <v>2872</v>
       </c>
     </row>
@@ -3402,31 +3542,31 @@
       <c r="A24" s="25">
         <v>15</v>
       </c>
-      <c r="B24" s="121" t="s">
+      <c r="B24" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="122">
+      <c r="C24" s="105">
         <v>1654</v>
       </c>
-      <c r="D24" s="123">
+      <c r="D24" s="106">
         <v>1637</v>
       </c>
-      <c r="E24" s="124">
+      <c r="E24" s="107">
         <v>1619.9</v>
       </c>
-      <c r="F24" s="123">
+      <c r="F24" s="106">
         <v>1628.4</v>
       </c>
-      <c r="G24" s="124">
+      <c r="G24" s="107">
         <v>1619.1</v>
       </c>
-      <c r="H24" s="123">
+      <c r="H24" s="106">
         <v>1611.8</v>
       </c>
-      <c r="I24" s="125">
+      <c r="I24" s="108">
         <v>1617.9</v>
       </c>
-      <c r="J24" s="126">
+      <c r="J24" s="109">
         <v>1621.9</v>
       </c>
     </row>
@@ -3434,31 +3574,31 @@
       <c r="A25">
         <v>16</v>
       </c>
-      <c r="B25" s="127" t="s">
+      <c r="B25" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="128">
+      <c r="C25" s="111">
         <v>1291.0999999999999</v>
       </c>
-      <c r="D25" s="63">
+      <c r="D25" s="54">
         <v>1271.8</v>
       </c>
-      <c r="E25" s="129">
+      <c r="E25" s="112">
         <v>1256.7</v>
       </c>
-      <c r="F25" s="63">
+      <c r="F25" s="54">
         <v>1242</v>
       </c>
-      <c r="G25" s="129">
+      <c r="G25" s="112">
         <v>1228.8</v>
       </c>
-      <c r="H25" s="63">
+      <c r="H25" s="54">
         <v>1226.8</v>
       </c>
-      <c r="I25" s="130">
+      <c r="I25" s="113">
         <v>1236.4000000000001</v>
       </c>
-      <c r="J25" s="131">
+      <c r="J25" s="114">
         <v>1250</v>
       </c>
     </row>
@@ -3466,31 +3606,31 @@
       <c r="A26" s="13">
         <v>17</v>
       </c>
-      <c r="B26" s="132" t="s">
+      <c r="B26" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="133">
+      <c r="C26" s="116">
         <v>6597.8</v>
       </c>
-      <c r="D26" s="111">
+      <c r="D26" s="94">
         <v>5478</v>
       </c>
-      <c r="E26" s="134">
+      <c r="E26" s="117">
         <v>4958.3</v>
       </c>
-      <c r="F26" s="111">
+      <c r="F26" s="94">
         <v>4882</v>
       </c>
-      <c r="G26" s="134">
+      <c r="G26" s="117">
         <v>4128.2</v>
       </c>
-      <c r="H26" s="111">
+      <c r="H26" s="94">
         <v>4097.5</v>
       </c>
-      <c r="I26" s="135">
+      <c r="I26" s="118">
         <v>3849.8</v>
       </c>
-      <c r="J26" s="136">
+      <c r="J26" s="119">
         <v>3723</v>
       </c>
     </row>
@@ -3498,31 +3638,31 @@
       <c r="A27">
         <v>18</v>
       </c>
-      <c r="B27" s="127" t="s">
+      <c r="B27" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="128">
+      <c r="C27" s="111">
         <v>6552</v>
       </c>
-      <c r="D27" s="63">
+      <c r="D27" s="54">
         <v>5432.2</v>
       </c>
-      <c r="E27" s="129">
+      <c r="E27" s="112">
         <v>4898</v>
       </c>
-      <c r="F27" s="63">
+      <c r="F27" s="54">
         <v>4836.2</v>
       </c>
-      <c r="G27" s="129">
+      <c r="G27" s="112">
         <v>4082.3</v>
       </c>
-      <c r="H27" s="63">
+      <c r="H27" s="54">
         <v>4051.6</v>
       </c>
-      <c r="I27" s="130">
+      <c r="I27" s="113">
         <v>3803.7</v>
       </c>
-      <c r="J27" s="131">
+      <c r="J27" s="114">
         <v>3676.8</v>
       </c>
     </row>
@@ -3530,31 +3670,31 @@
       <c r="A28" s="25">
         <v>19</v>
       </c>
-      <c r="B28" s="121" t="s">
+      <c r="B28" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="122">
+      <c r="C28" s="105">
         <v>1075.0999999999999</v>
       </c>
-      <c r="D28" s="123">
+      <c r="D28" s="106">
         <v>1076.5</v>
       </c>
-      <c r="E28" s="124">
+      <c r="E28" s="107">
         <v>1074.5999999999999</v>
       </c>
-      <c r="F28" s="123">
+      <c r="F28" s="106">
         <v>1078.0999999999999</v>
       </c>
-      <c r="G28" s="124">
+      <c r="G28" s="107">
         <v>1081.8</v>
       </c>
-      <c r="H28" s="123">
+      <c r="H28" s="106">
         <v>1082.0999999999999</v>
       </c>
-      <c r="I28" s="125">
+      <c r="I28" s="108">
         <v>1093.0999999999999</v>
       </c>
-      <c r="J28" s="126">
+      <c r="J28" s="109">
         <v>1091.4000000000001</v>
       </c>
     </row>
@@ -3562,61 +3702,61 @@
       <c r="A29">
         <v>20</v>
       </c>
-      <c r="B29" s="127" t="s">
+      <c r="B29" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="128">
+      <c r="C29" s="111">
         <v>810.6</v>
       </c>
-      <c r="D29" s="63">
+      <c r="D29" s="54">
         <v>828.7</v>
       </c>
-      <c r="E29" s="129">
+      <c r="E29" s="112">
         <v>832.9</v>
       </c>
-      <c r="F29" s="63">
+      <c r="F29" s="54">
         <v>837.5</v>
       </c>
-      <c r="G29" s="129">
+      <c r="G29" s="112">
         <v>842.6</v>
       </c>
-      <c r="H29" s="63">
+      <c r="H29" s="54">
         <v>848.1</v>
       </c>
-      <c r="I29" s="130">
+      <c r="I29" s="113">
         <v>854</v>
       </c>
-      <c r="J29" s="131">
+      <c r="J29" s="114">
         <v>860.4</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="25"/>
-      <c r="B30" s="137" t="s">
+      <c r="B30" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="122" t="s">
+      <c r="C30" s="105" t="s">
         <v>155</v>
       </c>
-      <c r="D30" s="123" t="s">
+      <c r="D30" s="106" t="s">
         <v>155</v>
       </c>
-      <c r="E30" s="124" t="s">
+      <c r="E30" s="107" t="s">
         <v>155</v>
       </c>
-      <c r="F30" s="123" t="s">
+      <c r="F30" s="106" t="s">
         <v>155</v>
       </c>
-      <c r="G30" s="124" t="s">
+      <c r="G30" s="107" t="s">
         <v>155</v>
       </c>
-      <c r="H30" s="123" t="s">
+      <c r="H30" s="106" t="s">
         <v>155</v>
       </c>
-      <c r="I30" s="125" t="s">
+      <c r="I30" s="108" t="s">
         <v>155</v>
       </c>
-      <c r="J30" s="126" t="s">
+      <c r="J30" s="109" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3624,31 +3764,31 @@
       <c r="A31" s="25">
         <v>21</v>
       </c>
-      <c r="B31" s="121" t="s">
+      <c r="B31" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="138" t="s">
+      <c r="C31" s="121" t="s">
         <v>156</v>
       </c>
-      <c r="D31" s="123">
+      <c r="D31" s="106">
         <v>14.5</v>
       </c>
-      <c r="E31" s="124">
+      <c r="E31" s="107">
         <v>14.6</v>
       </c>
-      <c r="F31" s="123">
+      <c r="F31" s="106">
         <v>14.7</v>
       </c>
-      <c r="G31" s="124">
+      <c r="G31" s="107">
         <v>14.8</v>
       </c>
-      <c r="H31" s="123">
+      <c r="H31" s="106">
         <v>14.9</v>
       </c>
-      <c r="I31" s="125">
+      <c r="I31" s="108">
         <v>15</v>
       </c>
-      <c r="J31" s="126">
+      <c r="J31" s="109">
         <v>15.1</v>
       </c>
     </row>
@@ -3656,31 +3796,31 @@
       <c r="A32">
         <v>22</v>
       </c>
-      <c r="B32" s="127" t="s">
+      <c r="B32" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="128">
+      <c r="C32" s="111">
         <v>653.20000000000005</v>
       </c>
-      <c r="D32" s="63">
+      <c r="D32" s="54">
         <v>669.2</v>
       </c>
-      <c r="E32" s="129">
+      <c r="E32" s="112">
         <v>684.1</v>
       </c>
-      <c r="F32" s="63">
+      <c r="F32" s="54">
         <v>686.3</v>
       </c>
-      <c r="G32" s="129">
+      <c r="G32" s="112">
         <v>684.7</v>
       </c>
-      <c r="H32" s="63">
+      <c r="H32" s="54">
         <v>680.1</v>
       </c>
-      <c r="I32" s="130">
+      <c r="I32" s="113">
         <v>672.1</v>
       </c>
-      <c r="J32" s="131">
+      <c r="J32" s="114">
         <v>666.9</v>
       </c>
     </row>
@@ -3688,60 +3828,60 @@
       <c r="A33" s="25">
         <v>23</v>
       </c>
-      <c r="B33" s="121" t="s">
+      <c r="B33" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="122">
+      <c r="C33" s="105">
         <v>493</v>
       </c>
-      <c r="D33" s="123">
+      <c r="D33" s="106">
         <v>1355.8</v>
       </c>
-      <c r="E33" s="124">
+      <c r="E33" s="107">
         <v>1404.9</v>
       </c>
-      <c r="F33" s="123">
+      <c r="F33" s="106">
         <v>1330.5</v>
       </c>
-      <c r="G33" s="124">
+      <c r="G33" s="107">
         <v>636</v>
       </c>
-      <c r="H33" s="123">
+      <c r="H33" s="106">
         <v>358.9</v>
       </c>
-      <c r="I33" s="125">
+      <c r="I33" s="108">
         <v>304.5</v>
       </c>
-      <c r="J33" s="126">
+      <c r="J33" s="109">
         <v>277.39999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="B34" s="142" t="s">
+      <c r="B34" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="128" t="s">
+      <c r="C34" s="111" t="s">
         <v>155</v>
       </c>
-      <c r="D34" s="63" t="s">
+      <c r="D34" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="E34" s="129" t="s">
+      <c r="E34" s="112" t="s">
         <v>155</v>
       </c>
-      <c r="F34" s="63" t="s">
+      <c r="F34" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="G34" s="129" t="s">
+      <c r="G34" s="112" t="s">
         <v>155</v>
       </c>
-      <c r="H34" s="63" t="s">
+      <c r="H34" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="I34" s="130" t="s">
+      <c r="I34" s="113" t="s">
         <v>155</v>
       </c>
-      <c r="J34" s="131" t="s">
+      <c r="J34" s="114" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3749,31 +3889,31 @@
       <c r="A35">
         <v>24</v>
       </c>
-      <c r="B35" s="143" t="s">
+      <c r="B35" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="128">
+      <c r="C35" s="111">
         <v>1</v>
       </c>
-      <c r="D35" s="63">
+      <c r="D35" s="54">
         <v>7.6</v>
       </c>
-      <c r="E35" s="129">
+      <c r="E35" s="112">
         <v>12.9</v>
       </c>
-      <c r="F35" s="63">
+      <c r="F35" s="54">
         <v>16.600000000000001</v>
       </c>
-      <c r="G35" s="129">
+      <c r="G35" s="112">
         <v>21.4</v>
       </c>
-      <c r="H35" s="63">
+      <c r="H35" s="54">
         <v>33.6</v>
       </c>
-      <c r="I35" s="130">
+      <c r="I35" s="113">
         <v>59</v>
       </c>
-      <c r="J35" s="131">
+      <c r="J35" s="114">
         <v>67.099999999999994</v>
       </c>
     </row>
@@ -3781,31 +3921,31 @@
       <c r="A36" s="25">
         <v>25</v>
       </c>
-      <c r="B36" s="144" t="s">
+      <c r="B36" s="127" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="122">
+      <c r="C36" s="105">
         <v>27.2</v>
       </c>
-      <c r="D36" s="123">
+      <c r="D36" s="106">
         <v>118.6</v>
       </c>
-      <c r="E36" s="124">
+      <c r="E36" s="107">
         <v>158.80000000000001</v>
       </c>
-      <c r="F36" s="123">
+      <c r="F36" s="106">
         <v>156.6</v>
       </c>
-      <c r="G36" s="124">
+      <c r="G36" s="107">
         <v>170.4</v>
       </c>
-      <c r="H36" s="123">
+      <c r="H36" s="106">
         <v>141.19999999999999</v>
       </c>
-      <c r="I36" s="125">
+      <c r="I36" s="108">
         <v>120.3</v>
       </c>
-      <c r="J36" s="126">
+      <c r="J36" s="109">
         <v>109.9</v>
       </c>
     </row>
@@ -3813,31 +3953,31 @@
       <c r="A37">
         <v>26</v>
       </c>
-      <c r="B37" s="143" t="s">
+      <c r="B37" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="128">
+      <c r="C37" s="111">
         <v>173.5</v>
       </c>
-      <c r="D37" s="63">
+      <c r="D37" s="54">
         <v>911</v>
       </c>
-      <c r="E37" s="129">
+      <c r="E37" s="112">
         <v>953.3</v>
       </c>
-      <c r="F37" s="63">
+      <c r="F37" s="54">
         <v>896.2</v>
       </c>
-      <c r="G37" s="129">
+      <c r="G37" s="112">
         <v>223.1</v>
       </c>
-      <c r="H37" s="63">
-        <v>0</v>
-      </c>
-      <c r="I37" s="130">
-        <v>0</v>
-      </c>
-      <c r="J37" s="131">
+      <c r="H37" s="54">
+        <v>0</v>
+      </c>
+      <c r="I37" s="113">
+        <v>0</v>
+      </c>
+      <c r="J37" s="114">
         <v>0</v>
       </c>
     </row>
@@ -3845,31 +3985,31 @@
       <c r="A38" s="25">
         <v>27</v>
       </c>
-      <c r="B38" s="121" t="s">
+      <c r="B38" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="122">
+      <c r="C38" s="105">
         <v>140.80000000000001</v>
       </c>
-      <c r="D38" s="123">
+      <c r="D38" s="106">
         <v>142.19999999999999</v>
       </c>
-      <c r="E38" s="124">
+      <c r="E38" s="107">
         <v>143.1</v>
       </c>
-      <c r="F38" s="123">
+      <c r="F38" s="106">
         <v>144.30000000000001</v>
       </c>
-      <c r="G38" s="124">
+      <c r="G38" s="107">
         <v>145.4</v>
       </c>
-      <c r="H38" s="123">
+      <c r="H38" s="106">
         <v>146.4</v>
       </c>
-      <c r="I38" s="125">
+      <c r="I38" s="108">
         <v>147.30000000000001</v>
       </c>
-      <c r="J38" s="126">
+      <c r="J38" s="109">
         <v>148.30000000000001</v>
       </c>
     </row>
@@ -3877,61 +4017,61 @@
       <c r="A39">
         <v>28</v>
       </c>
-      <c r="B39" s="127" t="s">
+      <c r="B39" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="128">
+      <c r="C39" s="111">
         <v>3379.3</v>
       </c>
-      <c r="D39" s="63">
+      <c r="D39" s="54">
         <v>1359.8</v>
       </c>
-      <c r="E39" s="129">
+      <c r="E39" s="112">
         <v>758.3</v>
       </c>
-      <c r="F39" s="63">
+      <c r="F39" s="54">
         <v>759.5</v>
       </c>
-      <c r="G39" s="129">
+      <c r="G39" s="112">
         <v>691.8</v>
       </c>
-      <c r="H39" s="63">
+      <c r="H39" s="54">
         <v>936</v>
       </c>
-      <c r="I39" s="130">
+      <c r="I39" s="113">
         <v>732.5</v>
       </c>
-      <c r="J39" s="131">
+      <c r="J39" s="114">
         <v>632.4</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="25"/>
-      <c r="B40" s="145" t="s">
+      <c r="B40" s="128" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="122" t="s">
+      <c r="C40" s="105" t="s">
         <v>155</v>
       </c>
-      <c r="D40" s="123" t="s">
+      <c r="D40" s="106" t="s">
         <v>155</v>
       </c>
-      <c r="E40" s="124" t="s">
+      <c r="E40" s="107" t="s">
         <v>155</v>
       </c>
-      <c r="F40" s="123" t="s">
+      <c r="F40" s="106" t="s">
         <v>155</v>
       </c>
-      <c r="G40" s="124" t="s">
+      <c r="G40" s="107" t="s">
         <v>155</v>
       </c>
-      <c r="H40" s="123" t="s">
+      <c r="H40" s="106" t="s">
         <v>155</v>
       </c>
-      <c r="I40" s="125" t="s">
+      <c r="I40" s="108" t="s">
         <v>155</v>
       </c>
-      <c r="J40" s="126" t="s">
+      <c r="J40" s="109" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3939,31 +4079,31 @@
       <c r="A41" s="25">
         <v>29</v>
       </c>
-      <c r="B41" s="146" t="s">
+      <c r="B41" s="129" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="122">
+      <c r="C41" s="105">
         <v>2588.4</v>
       </c>
-      <c r="D41" s="123">
+      <c r="D41" s="106">
         <v>605.79999999999995</v>
       </c>
-      <c r="E41" s="124">
+      <c r="E41" s="107">
         <v>40.200000000000003</v>
       </c>
-      <c r="F41" s="123">
+      <c r="F41" s="106">
         <v>32.799999999999997</v>
       </c>
-      <c r="G41" s="124">
+      <c r="G41" s="107">
         <v>9</v>
       </c>
-      <c r="H41" s="123">
+      <c r="H41" s="106">
         <v>4.8</v>
       </c>
-      <c r="I41" s="125">
+      <c r="I41" s="108">
         <v>14.1</v>
       </c>
-      <c r="J41" s="126">
+      <c r="J41" s="109">
         <v>12.1</v>
       </c>
     </row>
@@ -3971,31 +4111,31 @@
       <c r="A42">
         <v>30</v>
       </c>
-      <c r="B42" s="147" t="s">
+      <c r="B42" s="130" t="s">
         <v>157</v>
       </c>
-      <c r="C42" s="148" t="s">
+      <c r="C42" s="131" t="s">
         <v>78</v>
       </c>
-      <c r="D42" s="149" t="s">
+      <c r="D42" s="132" t="s">
         <v>78</v>
       </c>
-      <c r="E42" s="150" t="s">
+      <c r="E42" s="133" t="s">
         <v>78</v>
       </c>
-      <c r="F42" s="149" t="s">
+      <c r="F42" s="132" t="s">
         <v>156</v>
       </c>
-      <c r="G42" s="129">
+      <c r="G42" s="112">
         <v>21.5</v>
       </c>
-      <c r="H42" s="63">
+      <c r="H42" s="54">
         <v>297.10000000000002</v>
       </c>
-      <c r="I42" s="130">
+      <c r="I42" s="113">
         <v>87.4</v>
       </c>
-      <c r="J42" s="131">
+      <c r="J42" s="114">
         <v>13.8</v>
       </c>
     </row>
@@ -4003,31 +4143,31 @@
       <c r="A43" s="25">
         <v>31</v>
       </c>
-      <c r="B43" s="151" t="s">
+      <c r="B43" s="134" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="122">
+      <c r="C43" s="105">
         <v>8.6999999999999993</v>
       </c>
-      <c r="D43" s="123">
+      <c r="D43" s="106">
         <v>21.9</v>
       </c>
-      <c r="E43" s="124">
+      <c r="E43" s="107">
         <v>26.7</v>
       </c>
-      <c r="F43" s="123">
+      <c r="F43" s="106">
         <v>27</v>
       </c>
-      <c r="G43" s="124">
+      <c r="G43" s="107">
         <v>27</v>
       </c>
-      <c r="H43" s="123">
+      <c r="H43" s="106">
         <v>27</v>
       </c>
-      <c r="I43" s="125">
+      <c r="I43" s="108">
         <v>27</v>
       </c>
-      <c r="J43" s="126">
+      <c r="J43" s="109">
         <v>5.0999999999999996</v>
       </c>
     </row>
@@ -4035,31 +4175,31 @@
       <c r="A44">
         <v>32</v>
       </c>
-      <c r="B44" s="127" t="s">
+      <c r="B44" s="110" t="s">
         <v>158</v>
       </c>
-      <c r="C44" s="128">
+      <c r="C44" s="111">
         <v>237.3</v>
       </c>
-      <c r="D44" s="63">
+      <c r="D44" s="54">
         <v>161.80000000000001</v>
       </c>
-      <c r="E44" s="129">
+      <c r="E44" s="112">
         <v>83.7</v>
       </c>
-      <c r="F44" s="63">
+      <c r="F44" s="54">
         <v>99.1</v>
       </c>
-      <c r="G44" s="129">
+      <c r="G44" s="112">
         <v>48.1</v>
       </c>
-      <c r="H44" s="63">
+      <c r="H44" s="54">
         <v>28.1</v>
       </c>
-      <c r="I44" s="130">
+      <c r="I44" s="113">
         <v>23.9</v>
       </c>
-      <c r="J44" s="131">
+      <c r="J44" s="114">
         <v>17.600000000000001</v>
       </c>
     </row>
@@ -4067,31 +4207,31 @@
       <c r="A45" s="25">
         <v>33</v>
       </c>
-      <c r="B45" s="121" t="s">
+      <c r="B45" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="122">
+      <c r="C45" s="105">
         <v>45.8</v>
       </c>
-      <c r="D45" s="123">
+      <c r="D45" s="106">
         <v>45.8</v>
       </c>
-      <c r="E45" s="124">
+      <c r="E45" s="107">
         <v>60.3</v>
       </c>
-      <c r="F45" s="123">
+      <c r="F45" s="106">
         <v>45.8</v>
       </c>
-      <c r="G45" s="124">
+      <c r="G45" s="107">
         <v>45.9</v>
       </c>
-      <c r="H45" s="123">
+      <c r="H45" s="106">
         <v>46</v>
       </c>
-      <c r="I45" s="125">
+      <c r="I45" s="108">
         <v>46.1</v>
       </c>
-      <c r="J45" s="126">
+      <c r="J45" s="109">
         <v>46.2</v>
       </c>
     </row>
@@ -4099,31 +4239,31 @@
       <c r="A46" s="19">
         <v>34</v>
       </c>
-      <c r="B46" s="115" t="s">
+      <c r="B46" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="116">
+      <c r="C46" s="99">
         <v>1354.6</v>
       </c>
-      <c r="D46" s="117">
+      <c r="D46" s="100">
         <v>1392.3</v>
       </c>
-      <c r="E46" s="118">
+      <c r="E46" s="101">
         <v>1418.1</v>
       </c>
-      <c r="F46" s="117">
+      <c r="F46" s="100">
         <v>1436.6</v>
       </c>
-      <c r="G46" s="118">
+      <c r="G46" s="101">
         <v>1452.3</v>
       </c>
-      <c r="H46" s="117">
+      <c r="H46" s="100">
         <v>1462.3</v>
       </c>
-      <c r="I46" s="119">
+      <c r="I46" s="102">
         <v>1467.9</v>
       </c>
-      <c r="J46" s="120">
+      <c r="J46" s="103">
         <v>1471.8</v>
       </c>
     </row>
@@ -4131,31 +4271,31 @@
       <c r="A47" s="13">
         <v>35</v>
       </c>
-      <c r="B47" s="132" t="s">
+      <c r="B47" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="133">
+      <c r="C47" s="116">
         <v>2057.3000000000002</v>
       </c>
-      <c r="D47" s="111">
+      <c r="D47" s="94">
         <v>2099.1</v>
       </c>
-      <c r="E47" s="134">
+      <c r="E47" s="117">
         <v>2133.1999999999998</v>
       </c>
-      <c r="F47" s="111">
+      <c r="F47" s="94">
         <v>2168.1999999999998</v>
       </c>
-      <c r="G47" s="134">
+      <c r="G47" s="117">
         <v>2197.1999999999998</v>
       </c>
-      <c r="H47" s="111">
+      <c r="H47" s="94">
         <v>2216.4</v>
       </c>
-      <c r="I47" s="135">
+      <c r="I47" s="118">
         <v>2219.5</v>
       </c>
-      <c r="J47" s="136">
+      <c r="J47" s="119">
         <v>2215.6999999999998</v>
       </c>
     </row>
@@ -4163,31 +4303,31 @@
       <c r="A48" s="19">
         <v>36</v>
       </c>
-      <c r="B48" s="115" t="s">
+      <c r="B48" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="116">
+      <c r="C48" s="99">
         <v>19035.900000000001</v>
       </c>
-      <c r="D48" s="117">
+      <c r="D48" s="100">
         <v>18147.099999999999</v>
       </c>
-      <c r="E48" s="118">
+      <c r="E48" s="101">
         <v>17899.5</v>
       </c>
-      <c r="F48" s="117">
+      <c r="F48" s="100">
         <v>18045.099999999999</v>
       </c>
-      <c r="G48" s="118">
+      <c r="G48" s="101">
         <v>17494.5</v>
       </c>
-      <c r="H48" s="117">
+      <c r="H48" s="100">
         <v>17626.099999999999</v>
       </c>
-      <c r="I48" s="119">
+      <c r="I48" s="102">
         <v>17495.599999999999</v>
       </c>
-      <c r="J48" s="120">
+      <c r="J48" s="103">
         <v>17277.599999999999</v>
       </c>
     </row>
@@ -4195,31 +4335,31 @@
       <c r="A49" s="13">
         <v>37</v>
       </c>
-      <c r="B49" s="132" t="s">
+      <c r="B49" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="133">
+      <c r="C49" s="116">
         <v>12622.2</v>
       </c>
-      <c r="D49" s="111">
+      <c r="D49" s="94">
         <v>13658</v>
       </c>
-      <c r="E49" s="134">
+      <c r="E49" s="117">
         <v>14489.8</v>
       </c>
-      <c r="F49" s="111">
+      <c r="F49" s="94">
         <v>14702.9</v>
       </c>
-      <c r="G49" s="134">
+      <c r="G49" s="117">
         <v>14878.5</v>
       </c>
-      <c r="H49" s="111">
+      <c r="H49" s="94">
         <v>15080.1</v>
       </c>
-      <c r="I49" s="135">
+      <c r="I49" s="118">
         <v>15124</v>
       </c>
-      <c r="J49" s="136">
+      <c r="J49" s="119">
         <v>15057.2</v>
       </c>
     </row>
@@ -4227,31 +4367,31 @@
       <c r="A50">
         <v>38</v>
       </c>
-      <c r="B50" s="127" t="s">
+      <c r="B50" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="128">
+      <c r="C50" s="111">
         <v>12112.1</v>
       </c>
-      <c r="D50" s="63">
+      <c r="D50" s="54">
         <v>13165.4</v>
       </c>
-      <c r="E50" s="129">
+      <c r="E50" s="112">
         <v>14014.6</v>
       </c>
-      <c r="F50" s="63">
+      <c r="F50" s="54">
         <v>14224.7</v>
       </c>
-      <c r="G50" s="129">
+      <c r="G50" s="112">
         <v>14397.2</v>
       </c>
-      <c r="H50" s="63">
+      <c r="H50" s="54">
         <v>14582.7</v>
       </c>
-      <c r="I50" s="130">
+      <c r="I50" s="113">
         <v>14630.1</v>
       </c>
-      <c r="J50" s="131">
+      <c r="J50" s="114">
         <v>14566.8</v>
       </c>
     </row>
@@ -4259,60 +4399,60 @@
       <c r="A51" s="25">
         <v>39</v>
       </c>
-      <c r="B51" s="121" t="s">
+      <c r="B51" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="C51" s="122">
+      <c r="C51" s="105">
         <v>303.60000000000002</v>
       </c>
-      <c r="D51" s="123">
+      <c r="D51" s="106">
         <v>286</v>
       </c>
-      <c r="E51" s="124">
+      <c r="E51" s="107">
         <v>268.39999999999998</v>
       </c>
-      <c r="F51" s="123">
+      <c r="F51" s="106">
         <v>277.8</v>
       </c>
-      <c r="G51" s="124">
+      <c r="G51" s="107">
         <v>287.2</v>
       </c>
-      <c r="H51" s="123">
+      <c r="H51" s="106">
         <v>296.60000000000002</v>
       </c>
-      <c r="I51" s="125">
+      <c r="I51" s="108">
         <v>292.89999999999998</v>
       </c>
-      <c r="J51" s="126">
+      <c r="J51" s="109">
         <v>289.2</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B52" s="152" t="s">
+      <c r="B52" s="135" t="s">
         <v>47</v>
       </c>
-      <c r="C52" s="128" t="s">
+      <c r="C52" s="111" t="s">
         <v>155</v>
       </c>
-      <c r="D52" s="63" t="s">
+      <c r="D52" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="E52" s="129" t="s">
+      <c r="E52" s="112" t="s">
         <v>155</v>
       </c>
-      <c r="F52" s="63" t="s">
+      <c r="F52" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="G52" s="129" t="s">
+      <c r="G52" s="112" t="s">
         <v>155</v>
       </c>
-      <c r="H52" s="63" t="s">
+      <c r="H52" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="I52" s="130" t="s">
+      <c r="I52" s="113" t="s">
         <v>155</v>
       </c>
-      <c r="J52" s="131" t="s">
+      <c r="J52" s="114" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4320,31 +4460,31 @@
       <c r="A53">
         <v>40</v>
       </c>
-      <c r="B53" s="153" t="s">
+      <c r="B53" s="136" t="s">
         <v>159</v>
       </c>
-      <c r="C53" s="128">
+      <c r="C53" s="111">
         <v>-36</v>
       </c>
-      <c r="D53" s="63">
+      <c r="D53" s="54">
         <v>-36</v>
       </c>
-      <c r="E53" s="129">
+      <c r="E53" s="112">
         <v>-36</v>
       </c>
-      <c r="F53" s="63">
+      <c r="F53" s="54">
         <v>-36</v>
       </c>
-      <c r="G53" s="129">
+      <c r="G53" s="112">
         <v>-36</v>
       </c>
-      <c r="H53" s="63">
+      <c r="H53" s="54">
         <v>-36</v>
       </c>
-      <c r="I53" s="130">
+      <c r="I53" s="113">
         <v>-36</v>
       </c>
-      <c r="J53" s="131">
+      <c r="J53" s="114">
         <v>-36</v>
       </c>
     </row>
@@ -4352,31 +4492,31 @@
       <c r="A54" s="25">
         <v>41</v>
       </c>
-      <c r="B54" s="121" t="s">
+      <c r="B54" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="C54" s="122">
+      <c r="C54" s="105">
         <v>206.5</v>
       </c>
-      <c r="D54" s="123">
+      <c r="D54" s="106">
         <v>206.6</v>
       </c>
-      <c r="E54" s="124">
+      <c r="E54" s="107">
         <v>206.8</v>
       </c>
-      <c r="F54" s="123">
+      <c r="F54" s="106">
         <v>200.4</v>
       </c>
-      <c r="G54" s="124">
+      <c r="G54" s="107">
         <v>194.2</v>
       </c>
-      <c r="H54" s="123">
+      <c r="H54" s="106">
         <v>200.7</v>
       </c>
-      <c r="I54" s="125">
+      <c r="I54" s="108">
         <v>200.9</v>
       </c>
-      <c r="J54" s="126">
+      <c r="J54" s="109">
         <v>201.1</v>
       </c>
     </row>
@@ -4384,31 +4524,31 @@
       <c r="A55">
         <v>42</v>
       </c>
-      <c r="B55" s="127" t="s">
+      <c r="B55" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="C55" s="128">
+      <c r="C55" s="111">
         <v>112.3</v>
       </c>
-      <c r="D55" s="63">
+      <c r="D55" s="54">
         <v>112.5</v>
       </c>
-      <c r="E55" s="129">
+      <c r="E55" s="112">
         <v>112.6</v>
       </c>
-      <c r="F55" s="63">
+      <c r="F55" s="54">
         <v>112.8</v>
       </c>
-      <c r="G55" s="129">
+      <c r="G55" s="112">
         <v>113</v>
       </c>
-      <c r="H55" s="63">
+      <c r="H55" s="54">
         <v>113.1</v>
       </c>
-      <c r="I55" s="130">
+      <c r="I55" s="113">
         <v>113.3</v>
       </c>
-      <c r="J55" s="131">
+      <c r="J55" s="114">
         <v>113.6</v>
       </c>
     </row>
@@ -4416,63 +4556,63 @@
       <c r="A56" s="25">
         <v>43</v>
       </c>
-      <c r="B56" s="121" t="s">
+      <c r="B56" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="C56" s="122">
+      <c r="C56" s="105">
         <v>94.1</v>
       </c>
-      <c r="D56" s="123">
+      <c r="D56" s="106">
         <v>94.1</v>
       </c>
-      <c r="E56" s="124">
+      <c r="E56" s="107">
         <v>94.1</v>
       </c>
-      <c r="F56" s="123">
+      <c r="F56" s="106">
         <v>87.6</v>
       </c>
-      <c r="G56" s="124">
+      <c r="G56" s="107">
         <v>81.2</v>
       </c>
-      <c r="H56" s="123">
+      <c r="H56" s="106">
         <v>87.6</v>
       </c>
-      <c r="I56" s="125">
+      <c r="I56" s="108">
         <v>87.6</v>
       </c>
-      <c r="J56" s="126">
+      <c r="J56" s="109">
         <v>87.6</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="100">
+      <c r="A57" s="83">
         <v>44</v>
       </c>
-      <c r="B57" s="154" t="s">
+      <c r="B57" s="137" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="155">
+      <c r="C57" s="138">
         <v>6413.7</v>
       </c>
-      <c r="D57" s="156">
+      <c r="D57" s="139">
         <v>4489.1000000000004</v>
       </c>
-      <c r="E57" s="157">
+      <c r="E57" s="140">
         <v>3409.7</v>
       </c>
-      <c r="F57" s="158">
+      <c r="F57" s="141">
         <v>3342.2</v>
       </c>
-      <c r="G57" s="157">
+      <c r="G57" s="140">
         <v>2616</v>
       </c>
-      <c r="H57" s="158">
+      <c r="H57" s="141">
         <v>2546</v>
       </c>
-      <c r="I57" s="156">
+      <c r="I57" s="139">
         <v>2371.6</v>
       </c>
-      <c r="J57" s="159">
+      <c r="J57" s="142">
         <v>2220.4</v>
       </c>
     </row>
@@ -4649,7 +4789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66061241-D2E5-254C-A728-630365842011}">
   <dimension ref="A1:M90"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B13" workbookViewId="0">
       <selection activeCell="C6" sqref="C6:E6"/>
     </sheetView>
   </sheetViews>
@@ -4660,88 +4800,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="J1" s="62" t="s">
+      <c r="J1" s="160" t="s">
         <v>130</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="160"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="151" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="151" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="151"/>
     </row>
     <row r="4" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
+      <c r="A4" s="151"/>
+      <c r="B4" s="151"/>
+      <c r="C4" s="151"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="151"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="151"/>
+      <c r="L4" s="151"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="59"/>
+      <c r="C5" s="153" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="154"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="154"/>
+      <c r="H5" s="155"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="52">
+      <c r="C6" s="156">
         <v>2019</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="95">
+      <c r="D6" s="157"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="159">
         <v>2020</v>
       </c>
-      <c r="G6" s="53"/>
-      <c r="H6" s="54"/>
+      <c r="G6" s="157"/>
+      <c r="H6" s="158"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
@@ -5399,7 +5539,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B34" s="65" t="s">
+      <c r="B34" s="56" t="s">
         <v>133</v>
       </c>
       <c r="C34" s="31"/>
@@ -5413,7 +5553,7 @@
       <c r="A35">
         <v>24</v>
       </c>
-      <c r="B35" s="66" t="s">
+      <c r="B35" s="57" t="s">
         <v>83</v>
       </c>
       <c r="C35" s="31" t="s">
@@ -5439,7 +5579,7 @@
       <c r="A36" s="25">
         <v>25</v>
       </c>
-      <c r="B36" s="96" t="s">
+      <c r="B36" s="79" t="s">
         <v>81</v>
       </c>
       <c r="C36" s="27" t="s">
@@ -5465,7 +5605,7 @@
       <c r="A37">
         <v>26</v>
       </c>
-      <c r="B37" s="66" t="s">
+      <c r="B37" s="57" t="s">
         <v>82</v>
       </c>
       <c r="C37" s="31" t="s">
@@ -5541,7 +5681,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="25"/>
-      <c r="B40" s="67" t="s">
+      <c r="B40" s="58" t="s">
         <v>91</v>
       </c>
       <c r="C40" s="27"/>
@@ -5581,7 +5721,7 @@
       <c r="A42">
         <v>30</v>
       </c>
-      <c r="B42" s="97" t="s">
+      <c r="B42" s="80" t="s">
         <v>135</v>
       </c>
       <c r="C42" s="31" t="s">
@@ -5607,7 +5747,7 @@
       <c r="A43" s="25">
         <v>31</v>
       </c>
-      <c r="B43" s="64" t="s">
+      <c r="B43" s="55" t="s">
         <v>136</v>
       </c>
       <c r="C43" s="27" t="s">
@@ -5838,7 +5978,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B52" s="98" t="s">
+      <c r="B52" s="81" t="s">
         <v>91</v>
       </c>
       <c r="C52" s="31"/>
@@ -5852,7 +5992,7 @@
       <c r="A53">
         <v>40</v>
       </c>
-      <c r="B53" s="99" t="s">
+      <c r="B53" s="82" t="s">
         <v>138</v>
       </c>
       <c r="C53" s="31" t="s">
@@ -5953,28 +6093,28 @@
       </c>
     </row>
     <row r="57" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="100">
+      <c r="A57" s="83">
         <v>44</v>
       </c>
-      <c r="B57" s="101" t="s">
+      <c r="B57" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="102">
+      <c r="C57" s="85">
         <v>1186.0999999999999</v>
       </c>
-      <c r="D57" s="102">
+      <c r="D57" s="85">
         <v>1180.5999999999999</v>
       </c>
-      <c r="E57" s="102">
+      <c r="E57" s="85">
         <v>1203.8</v>
       </c>
-      <c r="F57" s="103">
+      <c r="F57" s="86">
         <v>1595.3</v>
       </c>
-      <c r="G57" s="104">
+      <c r="G57" s="87">
         <v>4770.8</v>
       </c>
-      <c r="H57" s="105">
+      <c r="H57" s="88">
         <v>2834.7</v>
       </c>
     </row>
@@ -6018,12 +6158,12 @@
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="106" t="s">
+      <c r="A66" s="89" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="106" t="s">
+      <c r="A67" s="89" t="s">
         <v>143</v>
       </c>
     </row>
@@ -6058,7 +6198,7 @@
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="68" t="s">
+      <c r="A74" s="59" t="s">
         <v>95</v>
       </c>
     </row>
@@ -6068,7 +6208,7 @@
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="68" t="s">
+      <c r="A76" s="59" t="s">
         <v>96</v>
       </c>
     </row>
@@ -6098,7 +6238,7 @@
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="68" t="s">
+      <c r="A82" s="59" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6151,1433 +6291,1628 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19945DE2-1D98-6641-B7A4-77D39C7DDCD9}">
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:P62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D16"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="70"/>
+      <c r="B1" s="61"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="161" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
+      <c r="B5" s="162"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="162"/>
+      <c r="F5" s="162"/>
+      <c r="G5" s="162"/>
+      <c r="H5" s="162"/>
+      <c r="I5" s="162"/>
+      <c r="J5" s="162"/>
+      <c r="K5" s="162"/>
+      <c r="L5" s="162"/>
+      <c r="M5" s="162"/>
+      <c r="N5" s="162"/>
+      <c r="O5" s="162"/>
+      <c r="P5" s="162"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="65"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="61"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="61"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="79" t="s">
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="163" t="s">
         <v>86</v>
       </c>
-      <c r="P8" s="79"/>
+      <c r="P8" s="163"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="61"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="80"/>
-      <c r="O9" s="82" t="s">
+      <c r="A9" s="53"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="70" t="s">
         <v>103</v>
       </c>
-      <c r="P9" s="82" t="s">
+      <c r="P9" s="70" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="76"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="77">
+      <c r="A10" s="65"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="66">
         <v>2020</v>
       </c>
-      <c r="E10" s="77">
+      <c r="E10" s="66">
         <v>2021</v>
       </c>
-      <c r="F10" s="77">
+      <c r="F10" s="66">
         <v>2022</v>
       </c>
-      <c r="G10" s="77">
+      <c r="G10" s="66">
         <v>2023</v>
       </c>
-      <c r="H10" s="77">
+      <c r="H10" s="66">
         <v>2024</v>
       </c>
-      <c r="I10" s="77">
+      <c r="I10" s="66">
         <v>2025</v>
       </c>
-      <c r="J10" s="77">
+      <c r="J10" s="66">
         <v>2026</v>
       </c>
-      <c r="K10" s="77">
+      <c r="K10" s="66">
         <v>2027</v>
       </c>
-      <c r="L10" s="77">
+      <c r="L10" s="66">
         <v>2028</v>
       </c>
-      <c r="M10" s="77">
+      <c r="M10" s="66">
         <v>2029</v>
       </c>
-      <c r="N10" s="77">
+      <c r="N10" s="66">
         <v>2030</v>
       </c>
-      <c r="O10" s="83">
+      <c r="O10" s="71">
         <v>2025</v>
       </c>
-      <c r="P10" s="83">
+      <c r="P10" s="71">
         <v>2030</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="84">
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="72">
         <v>540.56299999999999</v>
       </c>
-      <c r="E11" s="84">
-        <v>0</v>
-      </c>
-      <c r="F11" s="84">
-        <v>0</v>
-      </c>
-      <c r="G11" s="84">
-        <v>0</v>
-      </c>
-      <c r="H11" s="84">
-        <v>0</v>
-      </c>
-      <c r="I11" s="84">
-        <v>0</v>
-      </c>
-      <c r="J11" s="84">
-        <v>0</v>
-      </c>
-      <c r="K11" s="84">
-        <v>0</v>
-      </c>
-      <c r="L11" s="84">
-        <v>0</v>
-      </c>
-      <c r="M11" s="84">
-        <v>0</v>
-      </c>
-      <c r="N11" s="84">
-        <v>0</v>
-      </c>
-      <c r="O11" s="84">
-        <v>0</v>
-      </c>
-      <c r="P11" s="84">
+      <c r="E11" s="72">
+        <v>0</v>
+      </c>
+      <c r="F11" s="72">
+        <v>0</v>
+      </c>
+      <c r="G11" s="72">
+        <v>0</v>
+      </c>
+      <c r="H11" s="72">
+        <v>0</v>
+      </c>
+      <c r="I11" s="72">
+        <v>0</v>
+      </c>
+      <c r="J11" s="72">
+        <v>0</v>
+      </c>
+      <c r="K11" s="72">
+        <v>0</v>
+      </c>
+      <c r="L11" s="72">
+        <v>0</v>
+      </c>
+      <c r="M11" s="72">
+        <v>0</v>
+      </c>
+      <c r="N11" s="72">
+        <v>0</v>
+      </c>
+      <c r="O11" s="72">
+        <v>0</v>
+      </c>
+      <c r="P11" s="72">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="80"/>
-      <c r="N12" s="80"/>
-      <c r="O12" s="80"/>
-      <c r="P12" s="80"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="61"/>
-      <c r="B13" s="61" t="s">
+      <c r="A13" s="53"/>
+      <c r="B13" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="81">
+      <c r="C13" s="53"/>
+      <c r="D13" s="69">
         <v>285.56</v>
       </c>
-      <c r="E13" s="81">
+      <c r="E13" s="69">
         <v>5</v>
       </c>
-      <c r="F13" s="81">
-        <v>0</v>
-      </c>
-      <c r="G13" s="81">
-        <v>0</v>
-      </c>
-      <c r="H13" s="81">
-        <v>0</v>
-      </c>
-      <c r="I13" s="81">
-        <v>0</v>
-      </c>
-      <c r="J13" s="81">
-        <v>0</v>
-      </c>
-      <c r="K13" s="81">
-        <v>0</v>
-      </c>
-      <c r="L13" s="81">
-        <v>0</v>
-      </c>
-      <c r="M13" s="81">
-        <v>0</v>
-      </c>
-      <c r="N13" s="81">
-        <v>0</v>
-      </c>
-      <c r="O13" s="81">
+      <c r="F13" s="69">
+        <v>0</v>
+      </c>
+      <c r="G13" s="69">
+        <v>0</v>
+      </c>
+      <c r="H13" s="69">
+        <v>0</v>
+      </c>
+      <c r="I13" s="69">
+        <v>0</v>
+      </c>
+      <c r="J13" s="69">
+        <v>0</v>
+      </c>
+      <c r="K13" s="69">
+        <v>0</v>
+      </c>
+      <c r="L13" s="69">
+        <v>0</v>
+      </c>
+      <c r="M13" s="69">
+        <v>0</v>
+      </c>
+      <c r="N13" s="69">
+        <v>0</v>
+      </c>
+      <c r="O13" s="69">
         <v>5</v>
       </c>
-      <c r="P13" s="81">
+      <c r="P13" s="69">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="80"/>
-      <c r="B14" s="61" t="s">
+      <c r="A14" s="68"/>
+      <c r="B14" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="80"/>
-      <c r="D14" s="81">
+      <c r="C14" s="68"/>
+      <c r="D14" s="69">
         <v>67.209999999999994</v>
       </c>
-      <c r="E14" s="81">
+      <c r="E14" s="69">
         <v>13.68</v>
       </c>
-      <c r="F14" s="81">
-        <v>0</v>
-      </c>
-      <c r="G14" s="81">
-        <v>0</v>
-      </c>
-      <c r="H14" s="81">
-        <v>0</v>
-      </c>
-      <c r="I14" s="81">
-        <v>0</v>
-      </c>
-      <c r="J14" s="81">
-        <v>0</v>
-      </c>
-      <c r="K14" s="81">
-        <v>0</v>
-      </c>
-      <c r="L14" s="81">
-        <v>0</v>
-      </c>
-      <c r="M14" s="81">
-        <v>0</v>
-      </c>
-      <c r="N14" s="81">
-        <v>0</v>
-      </c>
-      <c r="O14" s="81">
+      <c r="F14" s="69">
+        <v>0</v>
+      </c>
+      <c r="G14" s="69">
+        <v>0</v>
+      </c>
+      <c r="H14" s="69">
+        <v>0</v>
+      </c>
+      <c r="I14" s="69">
+        <v>0</v>
+      </c>
+      <c r="J14" s="69">
+        <v>0</v>
+      </c>
+      <c r="K14" s="69">
+        <v>0</v>
+      </c>
+      <c r="L14" s="69">
+        <v>0</v>
+      </c>
+      <c r="M14" s="69">
+        <v>0</v>
+      </c>
+      <c r="N14" s="69">
+        <v>0</v>
+      </c>
+      <c r="O14" s="69">
         <v>13.68</v>
       </c>
-      <c r="P14" s="81">
+      <c r="P14" s="69">
         <v>13.68</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="80"/>
-      <c r="B15" s="61" t="s">
+      <c r="A15" s="68"/>
+      <c r="B15" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="80"/>
-      <c r="D15" s="81">
+      <c r="C15" s="68"/>
+      <c r="D15" s="69">
         <v>11.12</v>
       </c>
-      <c r="E15" s="81">
+      <c r="E15" s="69">
         <v>47.8</v>
       </c>
-      <c r="F15" s="81">
-        <v>0</v>
-      </c>
-      <c r="G15" s="81">
-        <v>0</v>
-      </c>
-      <c r="H15" s="81">
-        <v>0</v>
-      </c>
-      <c r="I15" s="81">
-        <v>0</v>
-      </c>
-      <c r="J15" s="81">
-        <v>0</v>
-      </c>
-      <c r="K15" s="81">
-        <v>0</v>
-      </c>
-      <c r="L15" s="81">
-        <v>0</v>
-      </c>
-      <c r="M15" s="81">
-        <v>0</v>
-      </c>
-      <c r="N15" s="81">
-        <v>0</v>
-      </c>
-      <c r="O15" s="81">
+      <c r="F15" s="69">
+        <v>0</v>
+      </c>
+      <c r="G15" s="69">
+        <v>0</v>
+      </c>
+      <c r="H15" s="69">
+        <v>0</v>
+      </c>
+      <c r="I15" s="69">
+        <v>0</v>
+      </c>
+      <c r="J15" s="69">
+        <v>0</v>
+      </c>
+      <c r="K15" s="69">
+        <v>0</v>
+      </c>
+      <c r="L15" s="69">
+        <v>0</v>
+      </c>
+      <c r="M15" s="69">
+        <v>0</v>
+      </c>
+      <c r="N15" s="69">
+        <v>0</v>
+      </c>
+      <c r="O15" s="69">
         <v>47.8</v>
       </c>
-      <c r="P15" s="81">
+      <c r="P15" s="69">
         <v>47.8</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="80"/>
-      <c r="B16" s="61" t="s">
+      <c r="A16" s="68"/>
+      <c r="B16" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="80"/>
-      <c r="D16" s="81">
+      <c r="C16" s="68"/>
+      <c r="D16" s="69">
         <v>6.2149999999999999</v>
       </c>
-      <c r="E16" s="81">
+      <c r="E16" s="69">
         <v>5.0049999999999999</v>
       </c>
-      <c r="F16" s="81">
-        <v>0</v>
-      </c>
-      <c r="G16" s="81">
-        <v>0</v>
-      </c>
-      <c r="H16" s="81">
-        <v>0</v>
-      </c>
-      <c r="I16" s="81">
-        <v>0</v>
-      </c>
-      <c r="J16" s="81">
-        <v>0</v>
-      </c>
-      <c r="K16" s="81">
-        <v>0</v>
-      </c>
-      <c r="L16" s="81">
-        <v>0</v>
-      </c>
-      <c r="M16" s="81">
-        <v>0</v>
-      </c>
-      <c r="N16" s="81">
-        <v>0</v>
-      </c>
-      <c r="O16" s="81">
+      <c r="F16" s="69">
+        <v>0</v>
+      </c>
+      <c r="G16" s="69">
+        <v>0</v>
+      </c>
+      <c r="H16" s="69">
+        <v>0</v>
+      </c>
+      <c r="I16" s="69">
+        <v>0</v>
+      </c>
+      <c r="J16" s="69">
+        <v>0</v>
+      </c>
+      <c r="K16" s="69">
+        <v>0</v>
+      </c>
+      <c r="L16" s="69">
+        <v>0</v>
+      </c>
+      <c r="M16" s="69">
+        <v>0</v>
+      </c>
+      <c r="N16" s="69">
+        <v>0</v>
+      </c>
+      <c r="O16" s="69">
         <v>5.0049999999999999</v>
       </c>
-      <c r="P16" s="81">
+      <c r="P16" s="69">
         <v>5.0049999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="80"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="81" t="s">
+      <c r="A17" s="68"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="E17" s="81" t="s">
+      <c r="E17" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="F17" s="81" t="s">
+      <c r="F17" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="G17" s="81" t="s">
+      <c r="G17" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="H17" s="81" t="s">
+      <c r="H17" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="I17" s="81" t="s">
+      <c r="I17" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="J17" s="81" t="s">
+      <c r="J17" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="81" t="s">
+      <c r="K17" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="L17" s="81" t="s">
+      <c r="L17" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="M17" s="81" t="s">
+      <c r="M17" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="N17" s="81" t="s">
+      <c r="N17" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="O17" s="81" t="s">
+      <c r="O17" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="P17" s="81" t="s">
+      <c r="P17" s="69" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="80"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="80" t="s">
+      <c r="A18" s="68"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="D18" s="81">
+      <c r="D18" s="69">
         <v>370.10500000000002</v>
       </c>
-      <c r="E18" s="81">
+      <c r="E18" s="69">
         <v>71.484999999999999</v>
       </c>
-      <c r="F18" s="81">
-        <v>0</v>
-      </c>
-      <c r="G18" s="81">
-        <v>0</v>
-      </c>
-      <c r="H18" s="81">
-        <v>0</v>
-      </c>
-      <c r="I18" s="81">
-        <v>0</v>
-      </c>
-      <c r="J18" s="81">
-        <v>0</v>
-      </c>
-      <c r="K18" s="81">
-        <v>0</v>
-      </c>
-      <c r="L18" s="81">
-        <v>0</v>
-      </c>
-      <c r="M18" s="81">
-        <v>0</v>
-      </c>
-      <c r="N18" s="81">
-        <v>0</v>
-      </c>
-      <c r="O18" s="81">
+      <c r="F18" s="69">
+        <v>0</v>
+      </c>
+      <c r="G18" s="69">
+        <v>0</v>
+      </c>
+      <c r="H18" s="69">
+        <v>0</v>
+      </c>
+      <c r="I18" s="69">
+        <v>0</v>
+      </c>
+      <c r="J18" s="69">
+        <v>0</v>
+      </c>
+      <c r="K18" s="69">
+        <v>0</v>
+      </c>
+      <c r="L18" s="69">
+        <v>0</v>
+      </c>
+      <c r="M18" s="69">
+        <v>0</v>
+      </c>
+      <c r="N18" s="69">
+        <v>0</v>
+      </c>
+      <c r="O18" s="69">
         <v>71.484999999999999</v>
       </c>
-      <c r="P18" s="81">
+      <c r="P18" s="69">
         <v>71.484999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="80"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="81"/>
-      <c r="O19" s="81"/>
-      <c r="P19" s="81"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="69"/>
     </row>
     <row r="20" spans="1:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="80" t="s">
+      <c r="A20" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="B20" s="61"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="81">
+      <c r="B20" s="53"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="69">
         <v>271.98399999999998</v>
       </c>
-      <c r="E20" s="81">
+      <c r="E20" s="69">
         <v>9.327</v>
       </c>
-      <c r="F20" s="81">
-        <v>0</v>
-      </c>
-      <c r="G20" s="81">
-        <v>0</v>
-      </c>
-      <c r="H20" s="81">
-        <v>0</v>
-      </c>
-      <c r="I20" s="81">
-        <v>0</v>
-      </c>
-      <c r="J20" s="81">
-        <v>0</v>
-      </c>
-      <c r="K20" s="81">
-        <v>0</v>
-      </c>
-      <c r="L20" s="81">
-        <v>0</v>
-      </c>
-      <c r="M20" s="81">
-        <v>0</v>
-      </c>
-      <c r="N20" s="81">
-        <v>0</v>
-      </c>
-      <c r="O20" s="81">
+      <c r="F20" s="69">
+        <v>0</v>
+      </c>
+      <c r="G20" s="69">
+        <v>0</v>
+      </c>
+      <c r="H20" s="69">
+        <v>0</v>
+      </c>
+      <c r="I20" s="69">
+        <v>0</v>
+      </c>
+      <c r="J20" s="69">
+        <v>0</v>
+      </c>
+      <c r="K20" s="69">
+        <v>0</v>
+      </c>
+      <c r="L20" s="69">
+        <v>0</v>
+      </c>
+      <c r="M20" s="69">
+        <v>0</v>
+      </c>
+      <c r="N20" s="69">
+        <v>0</v>
+      </c>
+      <c r="O20" s="69">
         <v>9.327</v>
       </c>
-      <c r="P20" s="81">
+      <c r="P20" s="69">
         <v>9.327</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="80" t="s">
+      <c r="A21" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="81">
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="69">
         <v>149.97300000000001</v>
       </c>
-      <c r="E21" s="81">
+      <c r="E21" s="69">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="F21" s="81">
-        <v>0</v>
-      </c>
-      <c r="G21" s="81">
-        <v>0</v>
-      </c>
-      <c r="H21" s="81">
-        <v>0</v>
-      </c>
-      <c r="I21" s="81">
-        <v>0</v>
-      </c>
-      <c r="J21" s="81">
-        <v>0</v>
-      </c>
-      <c r="K21" s="81">
-        <v>0</v>
-      </c>
-      <c r="L21" s="81">
-        <v>0</v>
-      </c>
-      <c r="M21" s="81">
-        <v>0</v>
-      </c>
-      <c r="N21" s="81">
-        <v>0</v>
-      </c>
-      <c r="O21" s="81">
+      <c r="F21" s="69">
+        <v>0</v>
+      </c>
+      <c r="G21" s="69">
+        <v>0</v>
+      </c>
+      <c r="H21" s="69">
+        <v>0</v>
+      </c>
+      <c r="I21" s="69">
+        <v>0</v>
+      </c>
+      <c r="J21" s="69">
+        <v>0</v>
+      </c>
+      <c r="K21" s="69">
+        <v>0</v>
+      </c>
+      <c r="L21" s="69">
+        <v>0</v>
+      </c>
+      <c r="M21" s="69">
+        <v>0</v>
+      </c>
+      <c r="N21" s="69">
+        <v>0</v>
+      </c>
+      <c r="O21" s="69">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="P21" s="81">
+      <c r="P21" s="69">
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="80" t="s">
+      <c r="A22" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="81">
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="69">
         <v>135.41999999999999</v>
       </c>
-      <c r="E22" s="81">
+      <c r="E22" s="69">
         <v>72.537999999999997</v>
       </c>
-      <c r="F22" s="81">
+      <c r="F22" s="69">
         <v>10.331</v>
       </c>
-      <c r="G22" s="81">
+      <c r="G22" s="69">
         <v>4.2670000000000003</v>
       </c>
-      <c r="H22" s="81">
+      <c r="H22" s="69">
         <v>1.347</v>
       </c>
-      <c r="I22" s="81">
+      <c r="I22" s="69">
         <v>0.67400000000000004</v>
       </c>
-      <c r="J22" s="81">
-        <v>0</v>
-      </c>
-      <c r="K22" s="81">
-        <v>0</v>
-      </c>
-      <c r="L22" s="81">
-        <v>0</v>
-      </c>
-      <c r="M22" s="81">
-        <v>0</v>
-      </c>
-      <c r="N22" s="81">
-        <v>0</v>
-      </c>
-      <c r="O22" s="81">
+      <c r="J22" s="69">
+        <v>0</v>
+      </c>
+      <c r="K22" s="69">
+        <v>0</v>
+      </c>
+      <c r="L22" s="69">
+        <v>0</v>
+      </c>
+      <c r="M22" s="69">
+        <v>0</v>
+      </c>
+      <c r="N22" s="69">
+        <v>0</v>
+      </c>
+      <c r="O22" s="69">
         <v>89.156999999999996</v>
       </c>
-      <c r="P22" s="81">
+      <c r="P22" s="69">
         <v>89.156999999999996</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="80" t="s">
+      <c r="A23" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="81"/>
-      <c r="M23" s="81"/>
-      <c r="N23" s="81"/>
-      <c r="O23" s="81"/>
-      <c r="P23" s="81"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="69"/>
+      <c r="O23" s="69"/>
+      <c r="P23" s="69"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="80" t="s">
+      <c r="A24" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="81">
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="69">
         <v>40.831000000000003</v>
       </c>
-      <c r="E24" s="81">
+      <c r="E24" s="69">
         <v>79.391999999999996</v>
       </c>
-      <c r="F24" s="81">
+      <c r="F24" s="69">
         <v>47.442999999999998</v>
       </c>
-      <c r="G24" s="81">
+      <c r="G24" s="69">
         <v>4.7220000000000004</v>
       </c>
-      <c r="H24" s="81">
-        <v>0</v>
-      </c>
-      <c r="I24" s="81">
-        <v>0</v>
-      </c>
-      <c r="J24" s="81">
-        <v>0</v>
-      </c>
-      <c r="K24" s="81">
-        <v>0</v>
-      </c>
-      <c r="L24" s="81">
-        <v>0</v>
-      </c>
-      <c r="M24" s="81">
-        <v>0</v>
-      </c>
-      <c r="N24" s="81">
-        <v>0</v>
-      </c>
-      <c r="O24" s="81">
+      <c r="H24" s="69">
+        <v>0</v>
+      </c>
+      <c r="I24" s="69">
+        <v>0</v>
+      </c>
+      <c r="J24" s="69">
+        <v>0</v>
+      </c>
+      <c r="K24" s="69">
+        <v>0</v>
+      </c>
+      <c r="L24" s="69">
+        <v>0</v>
+      </c>
+      <c r="M24" s="69">
+        <v>0</v>
+      </c>
+      <c r="N24" s="69">
+        <v>0</v>
+      </c>
+      <c r="O24" s="69">
         <v>131.55699999999999</v>
       </c>
-      <c r="P24" s="81">
+      <c r="P24" s="69">
         <v>131.55699999999999</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="80" t="s">
+      <c r="A25" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="81">
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="69">
         <v>58.054000000000002</v>
       </c>
-      <c r="E25" s="81">
+      <c r="E25" s="69">
         <v>14.755000000000001</v>
       </c>
-      <c r="F25" s="81">
+      <c r="F25" s="69">
         <v>3.4750000000000001</v>
       </c>
-      <c r="G25" s="81">
+      <c r="G25" s="69">
         <v>3.9249999999999998</v>
       </c>
-      <c r="H25" s="81">
+      <c r="H25" s="69">
         <v>4.375</v>
       </c>
-      <c r="I25" s="81">
+      <c r="I25" s="69">
         <v>4.375</v>
       </c>
-      <c r="J25" s="81">
+      <c r="J25" s="69">
         <v>4.5</v>
       </c>
-      <c r="K25" s="81">
+      <c r="K25" s="69">
         <v>4.5</v>
       </c>
-      <c r="L25" s="81">
+      <c r="L25" s="69">
         <v>4.5</v>
       </c>
-      <c r="M25" s="81">
+      <c r="M25" s="69">
         <v>4.5</v>
       </c>
-      <c r="N25" s="81">
+      <c r="N25" s="69">
         <v>4.5</v>
       </c>
-      <c r="O25" s="81">
+      <c r="O25" s="69">
         <v>30.905000000000001</v>
       </c>
-      <c r="P25" s="81">
+      <c r="P25" s="69">
         <v>53.405000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="80" t="s">
+      <c r="A26" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="B26" s="61"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="81">
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="69">
         <v>47.372999999999998</v>
       </c>
-      <c r="E26" s="81">
+      <c r="E26" s="69">
         <v>-46.081000000000003</v>
       </c>
-      <c r="F26" s="81">
-        <v>0</v>
-      </c>
-      <c r="G26" s="81">
-        <v>0</v>
-      </c>
-      <c r="H26" s="81">
-        <v>0</v>
-      </c>
-      <c r="I26" s="81">
-        <v>0</v>
-      </c>
-      <c r="J26" s="81">
-        <v>0</v>
-      </c>
-      <c r="K26" s="81">
-        <v>0</v>
-      </c>
-      <c r="L26" s="81">
-        <v>0</v>
-      </c>
-      <c r="M26" s="81">
-        <v>0</v>
-      </c>
-      <c r="N26" s="81">
-        <v>0</v>
-      </c>
-      <c r="O26" s="81">
+      <c r="F26" s="69">
+        <v>0</v>
+      </c>
+      <c r="G26" s="69">
+        <v>0</v>
+      </c>
+      <c r="H26" s="69">
+        <v>0</v>
+      </c>
+      <c r="I26" s="69">
+        <v>0</v>
+      </c>
+      <c r="J26" s="69">
+        <v>0</v>
+      </c>
+      <c r="K26" s="69">
+        <v>0</v>
+      </c>
+      <c r="L26" s="69">
+        <v>0</v>
+      </c>
+      <c r="M26" s="69">
+        <v>0</v>
+      </c>
+      <c r="N26" s="69">
+        <v>0</v>
+      </c>
+      <c r="O26" s="69">
         <v>-46.081000000000003</v>
       </c>
-      <c r="P26" s="81">
+      <c r="P26" s="69">
         <v>-46.081000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="80" t="s">
+      <c r="A27" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="61"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="81">
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="69">
         <v>24.475000000000001</v>
       </c>
-      <c r="E27" s="81">
+      <c r="E27" s="69">
         <v>32.784999999999997</v>
       </c>
-      <c r="F27" s="81">
+      <c r="F27" s="69">
         <v>8.4600000000000009</v>
       </c>
-      <c r="G27" s="81">
-        <v>0</v>
-      </c>
-      <c r="H27" s="81">
-        <v>0</v>
-      </c>
-      <c r="I27" s="81">
-        <v>0</v>
-      </c>
-      <c r="J27" s="81">
-        <v>0</v>
-      </c>
-      <c r="K27" s="81">
-        <v>0</v>
-      </c>
-      <c r="L27" s="81">
-        <v>0</v>
-      </c>
-      <c r="M27" s="81">
-        <v>0</v>
-      </c>
-      <c r="N27" s="81">
-        <v>0</v>
-      </c>
-      <c r="O27" s="81">
+      <c r="G27" s="69">
+        <v>0</v>
+      </c>
+      <c r="H27" s="69">
+        <v>0</v>
+      </c>
+      <c r="I27" s="69">
+        <v>0</v>
+      </c>
+      <c r="J27" s="69">
+        <v>0</v>
+      </c>
+      <c r="K27" s="69">
+        <v>0</v>
+      </c>
+      <c r="L27" s="69">
+        <v>0</v>
+      </c>
+      <c r="M27" s="69">
+        <v>0</v>
+      </c>
+      <c r="N27" s="69">
+        <v>0</v>
+      </c>
+      <c r="O27" s="69">
         <v>41.244999999999997</v>
       </c>
-      <c r="P27" s="81">
+      <c r="P27" s="69">
         <v>41.244999999999997</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="80" t="s">
+      <c r="A28" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="B28" s="61"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="81">
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="69">
         <v>27.5</v>
       </c>
-      <c r="E28" s="81">
+      <c r="E28" s="69">
         <v>0.86</v>
       </c>
-      <c r="F28" s="81">
+      <c r="F28" s="69">
         <v>-0.22</v>
       </c>
-      <c r="G28" s="81">
+      <c r="G28" s="69">
         <v>-0.49</v>
       </c>
-      <c r="H28" s="81">
+      <c r="H28" s="69">
         <v>-0.56000000000000005</v>
       </c>
-      <c r="I28" s="81">
+      <c r="I28" s="69">
         <v>-0.98</v>
       </c>
-      <c r="J28" s="81">
+      <c r="J28" s="69">
         <v>-0.76</v>
       </c>
-      <c r="K28" s="81">
+      <c r="K28" s="69">
         <v>-0.74</v>
       </c>
-      <c r="L28" s="81">
+      <c r="L28" s="69">
         <v>-0.72</v>
       </c>
-      <c r="M28" s="81">
+      <c r="M28" s="69">
         <v>-0.7</v>
       </c>
-      <c r="N28" s="81">
+      <c r="N28" s="69">
         <v>-0.69</v>
       </c>
-      <c r="O28" s="81">
+      <c r="O28" s="69">
         <v>-1.39</v>
       </c>
-      <c r="P28" s="81">
+      <c r="P28" s="69">
         <v>-5</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="80" t="s">
+      <c r="A29" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="B29" s="61"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="81">
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="69">
         <v>11.407999999999999</v>
       </c>
-      <c r="E29" s="81">
+      <c r="E29" s="69">
         <v>10.763</v>
       </c>
-      <c r="F29" s="81">
+      <c r="F29" s="69">
         <v>5.7809999999999997</v>
       </c>
-      <c r="G29" s="81">
+      <c r="G29" s="69">
         <v>0.92300000000000004</v>
       </c>
-      <c r="H29" s="81">
+      <c r="H29" s="69">
         <v>0.52300000000000002</v>
       </c>
-      <c r="I29" s="81">
+      <c r="I29" s="69">
         <v>0.43099999999999999</v>
       </c>
-      <c r="J29" s="81">
+      <c r="J29" s="69">
         <v>0.246</v>
       </c>
-      <c r="K29" s="81">
-        <v>0</v>
-      </c>
-      <c r="L29" s="81">
-        <v>0</v>
-      </c>
-      <c r="M29" s="81">
-        <v>0</v>
-      </c>
-      <c r="N29" s="81">
-        <v>0</v>
-      </c>
-      <c r="O29" s="81">
+      <c r="K29" s="69">
+        <v>0</v>
+      </c>
+      <c r="L29" s="69">
+        <v>0</v>
+      </c>
+      <c r="M29" s="69">
+        <v>0</v>
+      </c>
+      <c r="N29" s="69">
+        <v>0</v>
+      </c>
+      <c r="O29" s="69">
         <v>18.420999999999999</v>
       </c>
-      <c r="P29" s="81">
+      <c r="P29" s="69">
         <v>18.667000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="80" t="s">
+      <c r="A30" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="81">
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="69">
         <v>99.444000000000003</v>
       </c>
-      <c r="E30" s="81">
+      <c r="E30" s="69">
         <v>61.634</v>
       </c>
-      <c r="F30" s="81">
+      <c r="F30" s="69">
         <v>23.815000000000001</v>
       </c>
-      <c r="G30" s="81">
+      <c r="G30" s="69">
         <v>7.35</v>
       </c>
-      <c r="H30" s="81">
+      <c r="H30" s="69">
         <v>4.4029999999999996</v>
       </c>
-      <c r="I30" s="81">
+      <c r="I30" s="69">
         <v>1.663</v>
       </c>
-      <c r="J30" s="81">
+      <c r="J30" s="69">
         <v>0.74399999999999999</v>
       </c>
-      <c r="K30" s="81">
+      <c r="K30" s="69">
         <v>0.65500000000000003</v>
       </c>
-      <c r="L30" s="81">
+      <c r="L30" s="69">
         <v>0.68799999999999994</v>
       </c>
-      <c r="M30" s="81">
+      <c r="M30" s="69">
         <v>10.603</v>
       </c>
-      <c r="N30" s="81">
+      <c r="N30" s="69">
         <v>-35.328000000000003</v>
       </c>
-      <c r="O30" s="81">
+      <c r="O30" s="69">
         <v>98.864999999999995</v>
       </c>
-      <c r="P30" s="81">
+      <c r="P30" s="69">
         <v>76.227000000000004</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="80"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="81"/>
-      <c r="J31" s="81"/>
-      <c r="K31" s="81"/>
-      <c r="L31" s="81"/>
-      <c r="M31" s="81"/>
-      <c r="N31" s="81"/>
-      <c r="O31" s="81"/>
-      <c r="P31" s="81"/>
+      <c r="A31" s="68"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="69"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="69"/>
+      <c r="M31" s="69"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="69"/>
+      <c r="P31" s="69"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="85"/>
-      <c r="B32" s="85"/>
-      <c r="C32" s="85" t="s">
+      <c r="A32" s="73"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="D32" s="86">
+      <c r="D32" s="74">
         <v>1777.13</v>
       </c>
-      <c r="E32" s="86">
+      <c r="E32" s="74">
         <v>307.48399999999998</v>
       </c>
-      <c r="F32" s="86">
+      <c r="F32" s="74">
         <v>99.084999999999994</v>
       </c>
-      <c r="G32" s="86">
+      <c r="G32" s="74">
         <v>20.696999999999999</v>
       </c>
-      <c r="H32" s="86">
+      <c r="H32" s="74">
         <v>10.087999999999999</v>
       </c>
-      <c r="I32" s="86">
+      <c r="I32" s="74">
         <v>6.1630000000000003</v>
       </c>
-      <c r="J32" s="86">
+      <c r="J32" s="74">
         <v>4.7300000000000004</v>
       </c>
-      <c r="K32" s="86">
+      <c r="K32" s="74">
         <v>4.415</v>
       </c>
-      <c r="L32" s="86">
+      <c r="L32" s="74">
         <v>4.468</v>
       </c>
-      <c r="M32" s="86">
+      <c r="M32" s="74">
         <v>14.403</v>
       </c>
-      <c r="N32" s="86">
+      <c r="N32" s="74">
         <v>-31.518000000000001</v>
       </c>
-      <c r="O32" s="86">
+      <c r="O32" s="74">
         <v>443.517</v>
       </c>
-      <c r="P32" s="86">
+      <c r="P32" s="74">
         <v>440.01499999999999</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="61"/>
-      <c r="B33" s="61"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="80"/>
-      <c r="J33" s="80"/>
-      <c r="K33" s="80"/>
-      <c r="L33" s="80"/>
-      <c r="M33" s="80"/>
-      <c r="N33" s="80"/>
-      <c r="O33" s="80"/>
-      <c r="P33" s="80"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="68"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="68"/>
+      <c r="M33" s="68"/>
+      <c r="N33" s="68"/>
+      <c r="O33" s="68"/>
+      <c r="P33" s="68"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="87" t="s">
+      <c r="A34" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="B34" s="87"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87"/>
-      <c r="G34" s="87"/>
-      <c r="H34" s="87"/>
-      <c r="I34" s="87"/>
-      <c r="J34" s="87"/>
-      <c r="K34" s="87"/>
-      <c r="L34" s="87"/>
-      <c r="M34" s="87"/>
-      <c r="N34" s="87"/>
-      <c r="O34" s="87"/>
-      <c r="P34" s="87"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="75"/>
+      <c r="N34" s="75"/>
+      <c r="O34" s="75"/>
+      <c r="P34" s="75"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="87"/>
-      <c r="B35" s="87"/>
-      <c r="C35" s="87"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="87"/>
-      <c r="H35" s="87"/>
-      <c r="I35" s="87"/>
-      <c r="J35" s="87"/>
-      <c r="K35" s="87"/>
-      <c r="L35" s="87"/>
-      <c r="M35" s="87"/>
-      <c r="N35" s="87"/>
-      <c r="O35" s="87"/>
-      <c r="P35" s="87"/>
+      <c r="A35" s="75"/>
+      <c r="B35" s="75"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="75"/>
+      <c r="N35" s="75"/>
+      <c r="O35" s="75"/>
+      <c r="P35" s="75"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="89" t="s">
+      <c r="A36" s="164" t="s">
         <v>124</v>
       </c>
-      <c r="B36" s="89"/>
-      <c r="C36" s="89"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="89"/>
-      <c r="F36" s="89"/>
-      <c r="G36" s="89"/>
-      <c r="H36" s="89"/>
-      <c r="I36" s="89"/>
-      <c r="J36" s="89"/>
-      <c r="K36" s="89"/>
-      <c r="L36" s="89"/>
-      <c r="M36" s="89"/>
-      <c r="N36" s="89"/>
-      <c r="O36" s="89"/>
-      <c r="P36" s="89"/>
+      <c r="B36" s="164"/>
+      <c r="C36" s="164"/>
+      <c r="D36" s="164"/>
+      <c r="E36" s="164"/>
+      <c r="F36" s="164"/>
+      <c r="G36" s="164"/>
+      <c r="H36" s="164"/>
+      <c r="I36" s="164"/>
+      <c r="J36" s="164"/>
+      <c r="K36" s="164"/>
+      <c r="L36" s="164"/>
+      <c r="M36" s="164"/>
+      <c r="N36" s="164"/>
+      <c r="O36" s="164"/>
+      <c r="P36" s="164"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="89"/>
-      <c r="B37" s="89"/>
-      <c r="C37" s="89"/>
-      <c r="D37" s="89"/>
-      <c r="E37" s="89"/>
-      <c r="F37" s="89"/>
-      <c r="G37" s="89"/>
-      <c r="H37" s="89"/>
-      <c r="I37" s="89"/>
-      <c r="J37" s="89"/>
-      <c r="K37" s="89"/>
-      <c r="L37" s="89"/>
-      <c r="M37" s="89"/>
-      <c r="N37" s="89"/>
-      <c r="O37" s="89"/>
-      <c r="P37" s="89"/>
+      <c r="A37" s="164"/>
+      <c r="B37" s="164"/>
+      <c r="C37" s="164"/>
+      <c r="D37" s="164"/>
+      <c r="E37" s="164"/>
+      <c r="F37" s="164"/>
+      <c r="G37" s="164"/>
+      <c r="H37" s="164"/>
+      <c r="I37" s="164"/>
+      <c r="J37" s="164"/>
+      <c r="K37" s="164"/>
+      <c r="L37" s="164"/>
+      <c r="M37" s="164"/>
+      <c r="N37" s="164"/>
+      <c r="O37" s="164"/>
+      <c r="P37" s="164"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="89"/>
-      <c r="B38" s="89"/>
-      <c r="C38" s="89"/>
-      <c r="D38" s="89"/>
-      <c r="E38" s="89"/>
-      <c r="F38" s="89"/>
-      <c r="G38" s="89"/>
-      <c r="H38" s="89"/>
-      <c r="I38" s="89"/>
-      <c r="J38" s="89"/>
-      <c r="K38" s="89"/>
-      <c r="L38" s="89"/>
-      <c r="M38" s="89"/>
-      <c r="N38" s="89"/>
-      <c r="O38" s="89"/>
-      <c r="P38" s="89"/>
+      <c r="A38" s="164"/>
+      <c r="B38" s="164"/>
+      <c r="C38" s="164"/>
+      <c r="D38" s="164"/>
+      <c r="E38" s="164"/>
+      <c r="F38" s="164"/>
+      <c r="G38" s="164"/>
+      <c r="H38" s="164"/>
+      <c r="I38" s="164"/>
+      <c r="J38" s="164"/>
+      <c r="K38" s="164"/>
+      <c r="L38" s="164"/>
+      <c r="M38" s="164"/>
+      <c r="N38" s="164"/>
+      <c r="O38" s="164"/>
+      <c r="P38" s="164"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="89"/>
-      <c r="B39" s="89"/>
-      <c r="C39" s="89"/>
-      <c r="D39" s="89"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="89"/>
-      <c r="G39" s="89"/>
-      <c r="H39" s="89"/>
-      <c r="I39" s="89"/>
-      <c r="J39" s="89"/>
-      <c r="K39" s="89"/>
-      <c r="L39" s="89"/>
-      <c r="M39" s="89"/>
-      <c r="N39" s="89"/>
-      <c r="O39" s="89"/>
-      <c r="P39" s="89"/>
+      <c r="A39" s="164"/>
+      <c r="B39" s="164"/>
+      <c r="C39" s="164"/>
+      <c r="D39" s="164"/>
+      <c r="E39" s="164"/>
+      <c r="F39" s="164"/>
+      <c r="G39" s="164"/>
+      <c r="H39" s="164"/>
+      <c r="I39" s="164"/>
+      <c r="J39" s="164"/>
+      <c r="K39" s="164"/>
+      <c r="L39" s="164"/>
+      <c r="M39" s="164"/>
+      <c r="N39" s="164"/>
+      <c r="O39" s="164"/>
+      <c r="P39" s="164"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="89"/>
-      <c r="B40" s="89"/>
-      <c r="C40" s="89"/>
-      <c r="D40" s="89"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="89"/>
-      <c r="G40" s="89"/>
-      <c r="H40" s="89"/>
-      <c r="I40" s="89"/>
-      <c r="J40" s="89"/>
-      <c r="K40" s="89"/>
-      <c r="L40" s="89"/>
-      <c r="M40" s="89"/>
-      <c r="N40" s="89"/>
-      <c r="O40" s="89"/>
-      <c r="P40" s="89"/>
+      <c r="A40" s="164"/>
+      <c r="B40" s="164"/>
+      <c r="C40" s="164"/>
+      <c r="D40" s="164"/>
+      <c r="E40" s="164"/>
+      <c r="F40" s="164"/>
+      <c r="G40" s="164"/>
+      <c r="H40" s="164"/>
+      <c r="I40" s="164"/>
+      <c r="J40" s="164"/>
+      <c r="K40" s="164"/>
+      <c r="L40" s="164"/>
+      <c r="M40" s="164"/>
+      <c r="N40" s="164"/>
+      <c r="O40" s="164"/>
+      <c r="P40" s="164"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="90"/>
-      <c r="B41" s="90"/>
-      <c r="C41" s="90"/>
-      <c r="D41" s="90"/>
-      <c r="E41" s="90"/>
-      <c r="F41" s="90"/>
-      <c r="G41" s="90"/>
-      <c r="H41" s="90"/>
-      <c r="I41" s="90"/>
-      <c r="J41" s="90"/>
-      <c r="K41" s="90"/>
-      <c r="L41" s="90"/>
-      <c r="M41" s="90"/>
-      <c r="N41" s="90"/>
-      <c r="O41" s="90"/>
-      <c r="P41" s="90"/>
+      <c r="A41" s="77"/>
+      <c r="B41" s="77"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="77"/>
+      <c r="J41" s="77"/>
+      <c r="K41" s="77"/>
+      <c r="L41" s="77"/>
+      <c r="M41" s="77"/>
+      <c r="N41" s="77"/>
+      <c r="O41" s="77"/>
+      <c r="P41" s="77"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="89" t="s">
+      <c r="A42" s="164" t="s">
         <v>125</v>
       </c>
-      <c r="B42" s="89"/>
-      <c r="C42" s="89"/>
-      <c r="D42" s="89"/>
-      <c r="E42" s="89"/>
-      <c r="F42" s="89"/>
-      <c r="G42" s="89"/>
-      <c r="H42" s="89"/>
-      <c r="I42" s="89"/>
-      <c r="J42" s="89"/>
-      <c r="K42" s="89"/>
-      <c r="L42" s="89"/>
-      <c r="M42" s="89"/>
-      <c r="N42" s="89"/>
-      <c r="O42" s="89"/>
-      <c r="P42" s="89"/>
+      <c r="B42" s="164"/>
+      <c r="C42" s="164"/>
+      <c r="D42" s="164"/>
+      <c r="E42" s="164"/>
+      <c r="F42" s="164"/>
+      <c r="G42" s="164"/>
+      <c r="H42" s="164"/>
+      <c r="I42" s="164"/>
+      <c r="J42" s="164"/>
+      <c r="K42" s="164"/>
+      <c r="L42" s="164"/>
+      <c r="M42" s="164"/>
+      <c r="N42" s="164"/>
+      <c r="O42" s="164"/>
+      <c r="P42" s="164"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="89"/>
-      <c r="B43" s="89"/>
-      <c r="C43" s="89"/>
-      <c r="D43" s="89"/>
-      <c r="E43" s="89"/>
-      <c r="F43" s="89"/>
-      <c r="G43" s="89"/>
-      <c r="H43" s="89"/>
-      <c r="I43" s="89"/>
-      <c r="J43" s="89"/>
-      <c r="K43" s="89"/>
-      <c r="L43" s="89"/>
-      <c r="M43" s="89"/>
-      <c r="N43" s="89"/>
-      <c r="O43" s="89"/>
-      <c r="P43" s="89"/>
+      <c r="A43" s="164"/>
+      <c r="B43" s="164"/>
+      <c r="C43" s="164"/>
+      <c r="D43" s="164"/>
+      <c r="E43" s="164"/>
+      <c r="F43" s="164"/>
+      <c r="G43" s="164"/>
+      <c r="H43" s="164"/>
+      <c r="I43" s="164"/>
+      <c r="J43" s="164"/>
+      <c r="K43" s="164"/>
+      <c r="L43" s="164"/>
+      <c r="M43" s="164"/>
+      <c r="N43" s="164"/>
+      <c r="O43" s="164"/>
+      <c r="P43" s="164"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="89"/>
-      <c r="B44" s="89"/>
-      <c r="C44" s="89"/>
-      <c r="D44" s="89"/>
-      <c r="E44" s="89"/>
-      <c r="F44" s="89"/>
-      <c r="G44" s="89"/>
-      <c r="H44" s="89"/>
-      <c r="I44" s="89"/>
-      <c r="J44" s="89"/>
-      <c r="K44" s="89"/>
-      <c r="L44" s="89"/>
-      <c r="M44" s="89"/>
-      <c r="N44" s="89"/>
-      <c r="O44" s="89"/>
-      <c r="P44" s="89"/>
+      <c r="A44" s="164"/>
+      <c r="B44" s="164"/>
+      <c r="C44" s="164"/>
+      <c r="D44" s="164"/>
+      <c r="E44" s="164"/>
+      <c r="F44" s="164"/>
+      <c r="G44" s="164"/>
+      <c r="H44" s="164"/>
+      <c r="I44" s="164"/>
+      <c r="J44" s="164"/>
+      <c r="K44" s="164"/>
+      <c r="L44" s="164"/>
+      <c r="M44" s="164"/>
+      <c r="N44" s="164"/>
+      <c r="O44" s="164"/>
+      <c r="P44" s="164"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="87"/>
-      <c r="B45" s="87"/>
-      <c r="C45" s="87"/>
-      <c r="D45" s="88"/>
-      <c r="E45" s="87"/>
-      <c r="F45" s="87"/>
-      <c r="G45" s="87"/>
-      <c r="H45" s="87"/>
-      <c r="I45" s="87"/>
-      <c r="J45" s="87"/>
-      <c r="K45" s="87"/>
-      <c r="L45" s="87"/>
-      <c r="M45" s="87"/>
-      <c r="N45" s="87"/>
-      <c r="O45" s="87"/>
-      <c r="P45" s="87"/>
+      <c r="A45" s="75"/>
+      <c r="B45" s="75"/>
+      <c r="C45" s="75"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="75"/>
+      <c r="F45" s="75"/>
+      <c r="G45" s="75"/>
+      <c r="H45" s="75"/>
+      <c r="I45" s="75"/>
+      <c r="J45" s="75"/>
+      <c r="K45" s="75"/>
+      <c r="L45" s="75"/>
+      <c r="M45" s="75"/>
+      <c r="N45" s="75"/>
+      <c r="O45" s="75"/>
+      <c r="P45" s="75"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="91" t="s">
+      <c r="A46" s="165" t="s">
         <v>126</v>
       </c>
-      <c r="B46" s="92"/>
-      <c r="C46" s="92"/>
-      <c r="D46" s="92"/>
-      <c r="E46" s="92"/>
-      <c r="F46" s="92"/>
-      <c r="G46" s="92"/>
-      <c r="H46" s="92"/>
-      <c r="I46" s="92"/>
-      <c r="J46" s="92"/>
-      <c r="K46" s="92"/>
-      <c r="L46" s="92"/>
-      <c r="M46" s="92"/>
-      <c r="N46" s="92"/>
-      <c r="O46" s="92"/>
-      <c r="P46" s="92"/>
+      <c r="B46" s="166"/>
+      <c r="C46" s="166"/>
+      <c r="D46" s="166"/>
+      <c r="E46" s="166"/>
+      <c r="F46" s="166"/>
+      <c r="G46" s="166"/>
+      <c r="H46" s="166"/>
+      <c r="I46" s="166"/>
+      <c r="J46" s="166"/>
+      <c r="K46" s="166"/>
+      <c r="L46" s="166"/>
+      <c r="M46" s="166"/>
+      <c r="N46" s="166"/>
+      <c r="O46" s="166"/>
+      <c r="P46" s="166"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="92"/>
-      <c r="B47" s="92"/>
-      <c r="C47" s="92"/>
-      <c r="D47" s="92"/>
-      <c r="E47" s="92"/>
-      <c r="F47" s="92"/>
-      <c r="G47" s="92"/>
-      <c r="H47" s="92"/>
-      <c r="I47" s="92"/>
-      <c r="J47" s="92"/>
-      <c r="K47" s="92"/>
-      <c r="L47" s="92"/>
-      <c r="M47" s="92"/>
-      <c r="N47" s="92"/>
-      <c r="O47" s="92"/>
-      <c r="P47" s="92"/>
+      <c r="A47" s="166"/>
+      <c r="B47" s="166"/>
+      <c r="C47" s="166"/>
+      <c r="D47" s="166"/>
+      <c r="E47" s="166"/>
+      <c r="F47" s="166"/>
+      <c r="G47" s="166"/>
+      <c r="H47" s="166"/>
+      <c r="I47" s="166"/>
+      <c r="J47" s="166"/>
+      <c r="K47" s="166"/>
+      <c r="L47" s="166"/>
+      <c r="M47" s="166"/>
+      <c r="N47" s="166"/>
+      <c r="O47" s="166"/>
+      <c r="P47" s="166"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="87"/>
-      <c r="B48" s="87"/>
-      <c r="C48" s="87"/>
-      <c r="D48" s="88"/>
-      <c r="E48" s="87"/>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
-      <c r="H48" s="87"/>
-      <c r="I48" s="87"/>
-      <c r="J48" s="87"/>
-      <c r="K48" s="87"/>
-      <c r="L48" s="87"/>
-      <c r="M48" s="87"/>
-      <c r="N48" s="87"/>
-      <c r="O48" s="87"/>
-      <c r="P48" s="87"/>
+      <c r="A48" s="75"/>
+      <c r="B48" s="75"/>
+      <c r="C48" s="75"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="75"/>
+      <c r="F48" s="75"/>
+      <c r="G48" s="75"/>
+      <c r="H48" s="75"/>
+      <c r="I48" s="75"/>
+      <c r="J48" s="75"/>
+      <c r="K48" s="75"/>
+      <c r="L48" s="75"/>
+      <c r="M48" s="75"/>
+      <c r="N48" s="75"/>
+      <c r="O48" s="75"/>
+      <c r="P48" s="75"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="93" t="s">
+      <c r="A49" s="167" t="s">
         <v>127</v>
       </c>
-      <c r="B49" s="93"/>
-      <c r="C49" s="93"/>
-      <c r="D49" s="93"/>
-      <c r="E49" s="93"/>
-      <c r="F49" s="93"/>
-      <c r="G49" s="93"/>
-      <c r="H49" s="93"/>
-      <c r="I49" s="93"/>
-      <c r="J49" s="93"/>
-      <c r="K49" s="93"/>
-      <c r="L49" s="93"/>
-      <c r="M49" s="93"/>
-      <c r="N49" s="93"/>
-      <c r="O49" s="93"/>
-      <c r="P49" s="93"/>
+      <c r="B49" s="167"/>
+      <c r="C49" s="167"/>
+      <c r="D49" s="167"/>
+      <c r="E49" s="167"/>
+      <c r="F49" s="167"/>
+      <c r="G49" s="167"/>
+      <c r="H49" s="167"/>
+      <c r="I49" s="167"/>
+      <c r="J49" s="167"/>
+      <c r="K49" s="167"/>
+      <c r="L49" s="167"/>
+      <c r="M49" s="167"/>
+      <c r="N49" s="167"/>
+      <c r="O49" s="167"/>
+      <c r="P49" s="167"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="93"/>
-      <c r="B50" s="93"/>
-      <c r="C50" s="93"/>
-      <c r="D50" s="93"/>
-      <c r="E50" s="93"/>
-      <c r="F50" s="93"/>
-      <c r="G50" s="93"/>
-      <c r="H50" s="93"/>
-      <c r="I50" s="93"/>
-      <c r="J50" s="93"/>
-      <c r="K50" s="93"/>
-      <c r="L50" s="93"/>
-      <c r="M50" s="93"/>
-      <c r="N50" s="93"/>
-      <c r="O50" s="93"/>
-      <c r="P50" s="93"/>
+      <c r="A50" s="167"/>
+      <c r="B50" s="167"/>
+      <c r="C50" s="167"/>
+      <c r="D50" s="167"/>
+      <c r="E50" s="167"/>
+      <c r="F50" s="167"/>
+      <c r="G50" s="167"/>
+      <c r="H50" s="167"/>
+      <c r="I50" s="167"/>
+      <c r="J50" s="167"/>
+      <c r="K50" s="167"/>
+      <c r="L50" s="167"/>
+      <c r="M50" s="167"/>
+      <c r="N50" s="167"/>
+      <c r="O50" s="167"/>
+      <c r="P50" s="167"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="93"/>
-      <c r="B51" s="93"/>
-      <c r="C51" s="93"/>
-      <c r="D51" s="93"/>
-      <c r="E51" s="93"/>
-      <c r="F51" s="93"/>
-      <c r="G51" s="93"/>
-      <c r="H51" s="93"/>
-      <c r="I51" s="93"/>
-      <c r="J51" s="93"/>
-      <c r="K51" s="93"/>
-      <c r="L51" s="93"/>
-      <c r="M51" s="93"/>
-      <c r="N51" s="93"/>
-      <c r="O51" s="93"/>
-      <c r="P51" s="93"/>
+      <c r="A51" s="167"/>
+      <c r="B51" s="167"/>
+      <c r="C51" s="167"/>
+      <c r="D51" s="167"/>
+      <c r="E51" s="167"/>
+      <c r="F51" s="167"/>
+      <c r="G51" s="167"/>
+      <c r="H51" s="167"/>
+      <c r="I51" s="167"/>
+      <c r="J51" s="167"/>
+      <c r="K51" s="167"/>
+      <c r="L51" s="167"/>
+      <c r="M51" s="167"/>
+      <c r="N51" s="167"/>
+      <c r="O51" s="167"/>
+      <c r="P51" s="167"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A53" s="168">
+        <v>35000</v>
+      </c>
+      <c r="B53" s="169">
+        <v>45000</v>
+      </c>
+      <c r="C53" s="170">
+        <v>60000</v>
+      </c>
+      <c r="D53" s="171">
+        <v>60000</v>
+      </c>
+      <c r="E53" s="172">
+        <v>50000</v>
+      </c>
+      <c r="F53" s="172">
+        <v>50000</v>
+      </c>
+      <c r="G53" s="172">
+        <v>50000</v>
+      </c>
+      <c r="H53" s="172">
+        <v>50000</v>
+      </c>
+      <c r="I53" s="172">
+        <v>50000</v>
+      </c>
+      <c r="J53" s="172">
+        <v>50000</v>
+      </c>
+      <c r="K53" s="172">
+        <v>50000</v>
+      </c>
+      <c r="L53" s="172">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A54" s="173">
+        <f>A53/1000</f>
+        <v>35</v>
+      </c>
+      <c r="B54" s="173">
+        <f t="shared" ref="B54:L54" si="0">B53/1000</f>
+        <v>45</v>
+      </c>
+      <c r="C54" s="173">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="D54" s="173">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E54" s="173">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F54" s="173">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="G54" s="173">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="H54" s="173">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="I54" s="173">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="J54" s="173">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="K54" s="173">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="L54" s="173">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A56" s="174">
+        <f>A54/600</f>
+        <v>5.8333333333333334E-2</v>
+      </c>
+      <c r="B56" s="174">
+        <f>B54/600</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C56" s="174">
+        <f>C54/600</f>
+        <v>0.1</v>
+      </c>
+      <c r="D56" s="174">
+        <f>D54/600</f>
+        <v>0.1</v>
+      </c>
+      <c r="E56" s="174">
+        <f>E54/600</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F56" s="174">
+        <f>F54/600</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G56" s="174">
+        <f>G54/600</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H56" s="174">
+        <f>H54/600</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="I56" s="174">
+        <f>I54/600</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="J56" s="174">
+        <f>J54/600</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K56" s="174">
+        <f>K54/600</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="L56" s="174">
+        <f>L54/600</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <f>D22*4</f>
+        <v>541.67999999999995</v>
+      </c>
+      <c r="B59">
+        <f t="shared" ref="B59:L59" si="1">E22*4</f>
+        <v>290.15199999999999</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="1"/>
+        <v>41.323999999999998</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="1"/>
+        <v>17.068000000000001</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="1"/>
+        <v>5.3879999999999999</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="1"/>
+        <v>2.6960000000000002</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <f>120*4</f>
+        <v>480</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A49:P51"/>
     <mergeCell ref="A5:P5"/>
     <mergeCell ref="O8:P8"/>
     <mergeCell ref="A36:P40"/>
     <mergeCell ref="A42:P44"/>
     <mergeCell ref="A46:P47"/>
-    <mergeCell ref="A49:P51"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{37AD6EFA-21C3-F746-91AD-15981FDC0A41}"/>
@@ -7614,7 +7949,7 @@
       <c r="B2">
         <v>325</v>
       </c>
-      <c r="C2" s="160">
+      <c r="C2" s="143">
         <f>B2*1000</f>
         <v>325000</v>
       </c>
@@ -7626,7 +7961,7 @@
       <c r="B3">
         <v>120</v>
       </c>
-      <c r="C3" s="160">
+      <c r="C3" s="143">
         <f t="shared" ref="C3:C20" si="0">B3*1000</f>
         <v>120000</v>
       </c>
@@ -7638,7 +7973,7 @@
       <c r="B4">
         <v>166</v>
       </c>
-      <c r="C4" s="160">
+      <c r="C4" s="143">
         <f t="shared" si="0"/>
         <v>166000</v>
       </c>
@@ -7650,7 +7985,7 @@
       <c r="B5">
         <v>82</v>
       </c>
-      <c r="C5" s="160">
+      <c r="C5" s="143">
         <f t="shared" si="0"/>
         <v>82000</v>
       </c>
@@ -7662,184 +7997,184 @@
       <c r="B6">
         <v>63</v>
       </c>
-      <c r="C6" s="160">
+      <c r="C6" s="143">
         <f t="shared" si="0"/>
         <v>63000</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="161" t="s">
+      <c r="A7" s="144" t="s">
         <v>168</v>
       </c>
       <c r="B7">
         <v>22</v>
       </c>
-      <c r="C7" s="160">
+      <c r="C7" s="143">
         <f>B7*1000</f>
         <v>22000</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="161" t="s">
+      <c r="A8" s="144" t="s">
         <v>169</v>
       </c>
       <c r="B8">
         <v>20</v>
       </c>
-      <c r="C8" s="160">
+      <c r="C8" s="143">
         <f>B8*1000</f>
         <v>20000</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="161" t="s">
+      <c r="A9" s="144" t="s">
         <v>170</v>
       </c>
       <c r="B9">
         <v>9</v>
       </c>
-      <c r="C9" s="160">
+      <c r="C9" s="143">
         <f>B9*1000</f>
         <v>9000</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="161" t="s">
+      <c r="A10" s="144" t="s">
         <v>109</v>
       </c>
       <c r="B10">
         <f>B6-SUM(B7:B9)</f>
         <v>12</v>
       </c>
-      <c r="C10" s="160">
+      <c r="C10" s="143">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="162" t="s">
+      <c r="A11" s="145" t="s">
         <v>171</v>
       </c>
       <c r="B11">
         <v>45</v>
       </c>
-      <c r="C11" s="160">
+      <c r="C11" s="143">
         <f t="shared" si="0"/>
         <v>45000</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="161" t="s">
+      <c r="A12" s="144" t="s">
         <v>172</v>
       </c>
       <c r="B12">
         <v>16</v>
       </c>
-      <c r="C12" s="160">
+      <c r="C12" s="143">
         <f t="shared" si="0"/>
         <v>16000</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="161" t="s">
+      <c r="A13" s="144" t="s">
         <v>109</v>
       </c>
       <c r="B13">
         <f>B11-B12</f>
         <v>29</v>
       </c>
-      <c r="C13" s="160">
+      <c r="C13" s="143">
         <f t="shared" si="0"/>
         <v>29000</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="162" t="s">
+      <c r="A14" s="145" t="s">
         <v>173</v>
       </c>
       <c r="B14">
         <v>80</v>
       </c>
-      <c r="C14" s="160">
+      <c r="C14" s="143">
         <f t="shared" si="0"/>
         <v>80000</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="161" t="s">
+      <c r="A15" s="144" t="s">
         <v>174</v>
       </c>
       <c r="B15">
         <v>26</v>
       </c>
-      <c r="C15" s="160">
+      <c r="C15" s="143">
         <f t="shared" si="0"/>
         <v>26000</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="161" t="s">
+      <c r="A16" s="144" t="s">
         <v>109</v>
       </c>
       <c r="B16">
         <f>B14-B15</f>
         <v>54</v>
       </c>
-      <c r="C16" s="160">
+      <c r="C16" s="143">
         <f t="shared" si="0"/>
         <v>54000</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="162" t="s">
+      <c r="A17" s="145" t="s">
         <v>175</v>
       </c>
       <c r="B17">
         <v>30</v>
       </c>
-      <c r="C17" s="160">
+      <c r="C17" s="143">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="161" t="s">
+      <c r="A18" s="144" t="s">
         <v>176</v>
       </c>
       <c r="B18">
         <v>20</v>
       </c>
-      <c r="C18" s="160">
+      <c r="C18" s="143">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="161" t="s">
+      <c r="A19" s="144" t="s">
         <v>177</v>
       </c>
       <c r="B19">
         <v>5</v>
       </c>
-      <c r="C19" s="160">
+      <c r="C19" s="143">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="163" t="s">
+      <c r="A20" s="146" t="s">
         <v>178</v>
       </c>
-      <c r="B20" s="164">
+      <c r="B20" s="147">
         <v>5</v>
       </c>
-      <c r="C20" s="165">
+      <c r="C20" s="148">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="162" t="s">
+      <c r="A21" s="145" t="s">
         <v>86</v>
       </c>
       <c r="B21">
